--- a/podatki/Velikonočna/velikonočna_plovi.xlsx
+++ b/podatki/Velikonočna/velikonočna_plovi.xlsx
@@ -15,7 +15,10 @@
     <sheet name="velikonočna_plovi" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="List1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1799,6 +1802,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SanSimon_plovi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SLO711</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
@@ -2080,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="str">
-        <f>IF(ISNUMBER(H1),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A1,"'),",F1,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A1,"'),'",F1,"');"))</f>
+        <f t="shared" ref="D1:D64" si="0">IF(ISNUMBER(H1),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A1,"'),",F1,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A1,"'),'",F1,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO711'),2);</v>
       </c>
       <c r="F1">
@@ -2114,14 +2136,14 @@
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <f>IF(ISNUMBER(H2),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A2,"'),",F2,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A2,"'),'",F2,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT216'),1);</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="0">IF(ISNUMBER(K2),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A2,"'),",H2,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A2,"'),'",I2,"');"))</f>
+        <f t="shared" ref="G2:G65" si="1">IF(ISNUMBER(K2),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A2,"'),",H2,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A2,"'),'",I2,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT216'),1);</v>
       </c>
       <c r="H2">
@@ -2148,14 +2170,14 @@
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <f>IF(ISNUMBER(H3),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A3,"'),",F3,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A3,"'),'",F3,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1315'),3);</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1315'),3);</v>
       </c>
       <c r="H3">
@@ -2182,14 +2204,14 @@
         <v>3</v>
       </c>
       <c r="D4" t="str">
-        <f>IF(ISNUMBER(H4),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A4,"'),",F4,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A4,"'),'",F4,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1205'),2);</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1205'),1);</v>
       </c>
       <c r="H4">
@@ -2216,14 +2238,14 @@
         <v>5</v>
       </c>
       <c r="D5" t="str">
-        <f>IF(ISNUMBER(H5),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A5,"'),",F5,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A5,"'),'",F5,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9015'),3);</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9015'),2);</v>
       </c>
       <c r="H5">
@@ -2250,14 +2272,14 @@
         <v>6</v>
       </c>
       <c r="D6" t="str">
-        <f>IF(ISNUMBER(H6),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A6,"'),",F6,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A6,"'),'",F6,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13487'),3);</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13487'),2);</v>
       </c>
       <c r="H6">
@@ -2284,14 +2306,14 @@
         <v>7</v>
       </c>
       <c r="D7" t="str">
-        <f>IF(ISNUMBER(H7),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A7,"'),",F7,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A7,"'),'",F7,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9014'),6);</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9014'),3);</v>
       </c>
       <c r="H7">
@@ -2318,14 +2340,14 @@
         <v>9</v>
       </c>
       <c r="D8" t="str">
-        <f>IF(ISNUMBER(H8),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A8,"'),",F8,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A8,"'),'",F8,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9043'),16);</v>
       </c>
       <c r="F8">
         <v>16</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9043'),1);</v>
       </c>
       <c r="H8">
@@ -2352,14 +2374,14 @@
         <v>10</v>
       </c>
       <c r="D9" t="str">
-        <f>IF(ISNUMBER(H9),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A9,"'),",F9,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A9,"'),'",F9,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8699'),6);</v>
       </c>
       <c r="F9">
         <v>6</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8699'),7);</v>
       </c>
       <c r="H9">
@@ -2386,14 +2408,14 @@
         <v>11</v>
       </c>
       <c r="D10" t="str">
-        <f>IF(ISNUMBER(H10),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A10,"'),",F10,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A10,"'),'",F10,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1169'),4);</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1169'),8);</v>
       </c>
       <c r="H10">
@@ -2420,14 +2442,14 @@
         <v>12</v>
       </c>
       <c r="D11" t="str">
-        <f>IF(ISNUMBER(H11),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A11,"'),",F11,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A11,"'),'",F11,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT195'),-16);</v>
       </c>
       <c r="F11">
         <v>-16</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT195'),4);</v>
       </c>
       <c r="H11">
@@ -2454,14 +2476,14 @@
         <v>13</v>
       </c>
       <c r="D12" t="str">
-        <f>IF(ISNUMBER(H12),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A12,"'),",F12,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A12,"'),'",F12,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO311'),11);</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO311'),5);</v>
       </c>
       <c r="H12">
@@ -2488,14 +2510,14 @@
         <v>14</v>
       </c>
       <c r="D13" t="str">
-        <f>IF(ISNUMBER(H13),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A13,"'),",F13,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A13,"'),'",F13,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO922'),-15);</v>
       </c>
       <c r="F13">
         <v>-15</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO922'),6);</v>
       </c>
       <c r="H13">
@@ -2522,14 +2544,14 @@
         <v>15</v>
       </c>
       <c r="D14" t="str">
-        <f>IF(ISNUMBER(H14),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A14,"'),",F14,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A14,"'),'",F14,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='MLT206'),13);</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='MLT206'),7);</v>
       </c>
       <c r="H14">
@@ -2556,14 +2578,14 @@
         <v>16</v>
       </c>
       <c r="D15" t="str">
-        <f>IF(ISNUMBER(H15),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A15,"'),",F15,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A15,"'),'",F15,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1188'),1);</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1188'),15);</v>
       </c>
       <c r="H15">
@@ -2590,14 +2612,14 @@
         <v>17</v>
       </c>
       <c r="D16" t="str">
-        <f>IF(ISNUMBER(H16),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A16,"'),",F16,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A16,"'),'",F16,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1053'),15);</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1053'),4);</v>
       </c>
       <c r="H16">
@@ -2624,14 +2646,14 @@
         <v>18</v>
       </c>
       <c r="D17" t="str">
-        <f>IF(ISNUMBER(H17),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A17,"'),",F17,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A17,"'),'",F17,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1255'),'8');</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1255'),(BFD));</v>
       </c>
       <c r="H17" t="s">
@@ -2658,14 +2680,14 @@
         <v>19</v>
       </c>
       <c r="D18" t="str">
-        <f>IF(ISNUMBER(H18),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A18,"'),",F18,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A18,"'),'",F18,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO228'),5);</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO228'),13);</v>
       </c>
       <c r="H18">
@@ -2692,14 +2714,14 @@
         <v>20</v>
       </c>
       <c r="D19" t="str">
-        <f>IF(ISNUMBER(H19),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A19,"'),",F19,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A19,"'),'",F19,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1199'),-11);</v>
       </c>
       <c r="F19">
         <v>-11</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1199'),5);</v>
       </c>
       <c r="H19">
@@ -2726,14 +2748,14 @@
         <v>21</v>
       </c>
       <c r="D20" t="str">
-        <f>IF(ISNUMBER(H20),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A20,"'),",F20,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A20,"'),'",F20,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1191'),5);</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1191'),7);</v>
       </c>
       <c r="H20">
@@ -2760,14 +2782,14 @@
         <v>22</v>
       </c>
       <c r="D21" t="str">
-        <f>IF(ISNUMBER(H21),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A21,"'),",F21,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A21,"'),'",F21,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8340'),10);</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8340'),5);</v>
       </c>
       <c r="H21">
@@ -2794,14 +2816,14 @@
         <v>23</v>
       </c>
       <c r="D22" t="str">
-        <f>IF(ISNUMBER(H22),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A22,"'),",F22,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A22,"'),'",F22,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1202'),3);</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1202'),-22);</v>
       </c>
       <c r="H22">
@@ -2828,14 +2850,14 @@
         <v>24</v>
       </c>
       <c r="D23" t="str">
-        <f>IF(ISNUMBER(H23),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A23,"'),",F23,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A23,"'),'",F23,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8604'),'4');</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8604'),(BFD));</v>
       </c>
       <c r="H23" t="s">
@@ -2862,14 +2884,14 @@
         <v>25</v>
       </c>
       <c r="D24" t="str">
-        <f>IF(ISNUMBER(H24),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A24,"'),",F24,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A24,"'),'",F24,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13640'),4);</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13640'),10);</v>
       </c>
       <c r="H24">
@@ -2896,14 +2918,14 @@
         <v>26</v>
       </c>
       <c r="D25" t="str">
-        <f>IF(ISNUMBER(H25),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A25,"'),",F25,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A25,"'),'",F25,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO811'),'5');</v>
       </c>
       <c r="F25">
         <v>5</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO811'),(BFD));</v>
       </c>
       <c r="H25" t="s">
@@ -2930,14 +2952,14 @@
         <v>27</v>
       </c>
       <c r="D26" t="str">
-        <f>IF(ISNUMBER(H26),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A26,"'),",F26,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A26,"'),'",F26,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1009'),11);</v>
       </c>
       <c r="F26">
         <v>11</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1009'),-24);</v>
       </c>
       <c r="H26">
@@ -2964,14 +2986,14 @@
         <v>28</v>
       </c>
       <c r="D27" t="str">
-        <f>IF(ISNUMBER(H27),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A27,"'),",F27,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A27,"'),'",F27,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1309'),-37);</v>
       </c>
       <c r="F27">
         <v>-37</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1309'),16);</v>
       </c>
       <c r="H27">
@@ -2998,14 +3020,14 @@
         <v>29</v>
       </c>
       <c r="D28" t="str">
-        <f>IF(ISNUMBER(H28),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A28,"'),",F28,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A28,"'),'",F28,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO919'),7);</v>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO919'),16);</v>
       </c>
       <c r="H28">
@@ -3032,14 +3054,14 @@
         <v>30</v>
       </c>
       <c r="D29" t="str">
-        <f>IF(ISNUMBER(H29),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A29,"'),",F29,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A29,"'),'",F29,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13484'),14);</v>
       </c>
       <c r="F29">
         <v>14</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13484'),5);</v>
       </c>
       <c r="H29">
@@ -3066,14 +3088,14 @@
         <v>31</v>
       </c>
       <c r="D30" t="str">
-        <f>IF(ISNUMBER(H30),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A30,"'),",F30,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A30,"'),'",F30,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7918'),4);</v>
       </c>
       <c r="F30">
         <v>4</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7918'),1);</v>
       </c>
       <c r="H30">
@@ -3100,14 +3122,14 @@
         <v>32</v>
       </c>
       <c r="D31" t="str">
-        <f>IF(ISNUMBER(H31),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A31,"'),",F31,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A31,"'),'",F31,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1131'),10);</v>
       </c>
       <c r="F31">
         <v>10</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1131'),11);</v>
       </c>
       <c r="H31">
@@ -3134,14 +3156,14 @@
         <v>33</v>
       </c>
       <c r="D32" t="str">
-        <f>IF(ISNUMBER(H32),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A32,"'),",F32,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A32,"'),'",F32,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO411'),15);</v>
       </c>
       <c r="F32">
         <v>15</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO411'),8);</v>
       </c>
       <c r="H32">
@@ -3168,14 +3190,14 @@
         <v>34</v>
       </c>
       <c r="D33" t="str">
-        <f>IF(ISNUMBER(H33),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A33,"'),",F33,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A33,"'),'",F33,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8142'),12);</v>
       </c>
       <c r="F33">
         <v>12</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8142'),11);</v>
       </c>
       <c r="H33">
@@ -3202,14 +3224,14 @@
         <v>35</v>
       </c>
       <c r="D34" t="str">
-        <f>IF(ISNUMBER(H34),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A34,"'),",F34,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A34,"'),'",F34,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1351'),12);</v>
       </c>
       <c r="F34">
         <v>12</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1351'),11);</v>
       </c>
       <c r="H34">
@@ -3236,14 +3258,14 @@
         <v>36</v>
       </c>
       <c r="D35" t="str">
-        <f>IF(ISNUMBER(H35),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A35,"'),",F35,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A35,"'),'",F35,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO64'),'5');</v>
       </c>
       <c r="F35">
         <v>5</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO64'),(BFD));</v>
       </c>
       <c r="H35" t="s">
@@ -3270,14 +3292,14 @@
         <v>37</v>
       </c>
       <c r="D36" t="str">
-        <f>IF(ISNUMBER(H36),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A36,"'),",F36,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A36,"'),'",F36,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13204'),1);</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13204'),6);</v>
       </c>
       <c r="H36">
@@ -3304,14 +3326,14 @@
         <v>38</v>
       </c>
       <c r="D37" t="str">
-        <f>IF(ISNUMBER(H37),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A37,"'),",F37,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A37,"'),'",F37,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7477'),18);</v>
       </c>
       <c r="F37">
         <v>18</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7477'),8);</v>
       </c>
       <c r="H37">
@@ -3338,14 +3360,14 @@
         <v>39</v>
       </c>
       <c r="D38" t="str">
-        <f>IF(ISNUMBER(H38),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A38,"'),",F38,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A38,"'),'",F38,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8961'),17);</v>
       </c>
       <c r="F38">
         <v>17</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8961'),-33);</v>
       </c>
       <c r="H38">
@@ -3372,14 +3394,14 @@
         <v>40</v>
       </c>
       <c r="D39" t="str">
-        <f>IF(ISNUMBER(H39),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A39,"'),",F39,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A39,"'),'",F39,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1227'),13);</v>
       </c>
       <c r="F39">
         <v>13</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1227'),29);</v>
       </c>
       <c r="H39">
@@ -3406,14 +3428,14 @@
         <v>41</v>
       </c>
       <c r="D40" t="str">
-        <f>IF(ISNUMBER(H40),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A40,"'),",F40,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A40,"'),'",F40,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1852'),18);</v>
       </c>
       <c r="F40">
         <v>18</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1852'),10);</v>
       </c>
       <c r="H40">
@@ -3440,14 +3462,14 @@
         <v>42</v>
       </c>
       <c r="D41" t="str">
-        <f>IF(ISNUMBER(H41),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A41,"'),",F41,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A41,"'),'",F41,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1228'),7);</v>
       </c>
       <c r="F41">
         <v>7</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1228'),4);</v>
       </c>
       <c r="H41">
@@ -3474,14 +3496,14 @@
         <v>43</v>
       </c>
       <c r="D42" t="str">
-        <f>IF(ISNUMBER(H42),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A42,"'),",F42,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A42,"'),'",F42,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13569'),26);</v>
       </c>
       <c r="F42">
         <v>26</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13569'),13);</v>
       </c>
       <c r="H42">
@@ -3508,14 +3530,14 @@
         <v>44</v>
       </c>
       <c r="D43" t="str">
-        <f>IF(ISNUMBER(H43),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A43,"'),",F43,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A43,"'),'",F43,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13207'),9);</v>
       </c>
       <c r="F43">
         <v>9</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13207'),9);</v>
       </c>
       <c r="H43">
@@ -3542,14 +3564,14 @@
         <v>45</v>
       </c>
       <c r="D44" t="str">
-        <f>IF(ISNUMBER(H44),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A44,"'),",F44,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A44,"'),'",F44,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1225'),1);</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1225'),2);</v>
       </c>
       <c r="H44">
@@ -3576,14 +3598,14 @@
         <v>46</v>
       </c>
       <c r="D45" t="str">
-        <f>IF(ISNUMBER(H45),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A45,"'),",F45,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A45,"'),'",F45,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO234'),18);</v>
       </c>
       <c r="F45">
         <v>18</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO234'),10);</v>
       </c>
       <c r="H45">
@@ -3610,14 +3632,14 @@
         <v>47</v>
       </c>
       <c r="D46" t="str">
-        <f>IF(ISNUMBER(H46),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A46,"'),",F46,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A46,"'),'",F46,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO255'),'2');</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO255'),(BFD));</v>
       </c>
       <c r="H46" t="s">
@@ -3644,14 +3666,14 @@
         <v>48</v>
       </c>
       <c r="D47" t="str">
-        <f>IF(ISNUMBER(H47),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A47,"'),",F47,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A47,"'),'",F47,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1217'),21);</v>
       </c>
       <c r="F47">
         <v>21</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1217'),12);</v>
       </c>
       <c r="H47">
@@ -3678,14 +3700,14 @@
         <v>49</v>
       </c>
       <c r="D48" t="str">
-        <f>IF(ISNUMBER(H48),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A48,"'),",F48,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A48,"'),'",F48,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1093'),15);</v>
       </c>
       <c r="F48">
         <v>15</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1093'),12);</v>
       </c>
       <c r="H48">
@@ -3712,14 +3734,14 @@
         <v>50</v>
       </c>
       <c r="D49" t="str">
-        <f>IF(ISNUMBER(H49),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A49,"'),",F49,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A49,"'),'",F49,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1256'),-25);</v>
       </c>
       <c r="F49">
         <v>-25</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1256'),16);</v>
       </c>
       <c r="H49">
@@ -3746,14 +3768,14 @@
         <v>51</v>
       </c>
       <c r="D50" t="str">
-        <f>IF(ISNUMBER(H50),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A50,"'),",F50,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A50,"'),'",F50,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1271'),-30);</v>
       </c>
       <c r="F50">
         <v>-30</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1271'),12);</v>
       </c>
       <c r="H50">
@@ -3780,14 +3802,14 @@
         <v>52</v>
       </c>
       <c r="D51" t="str">
-        <f>IF(ISNUMBER(H51),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A51,"'),",F51,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A51,"'),'",F51,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8037'),19);</v>
       </c>
       <c r="F51">
         <v>19</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8037'),13);</v>
       </c>
       <c r="H51">
@@ -3814,14 +3836,14 @@
         <v>53</v>
       </c>
       <c r="D52" t="str">
-        <f>IF(ISNUMBER(H52),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A52,"'),",F52,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A52,"'),'",F52,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13644'),2);</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13644'),9);</v>
       </c>
       <c r="H52">
@@ -3848,14 +3870,14 @@
         <v>54</v>
       </c>
       <c r="D53" t="str">
-        <f>IF(ISNUMBER(H53),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A53,"'),",F53,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A53,"'),'",F53,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO1005'),14);</v>
       </c>
       <c r="F53">
         <v>14</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO1005'),10);</v>
       </c>
       <c r="H53">
@@ -3882,14 +3904,14 @@
         <v>56</v>
       </c>
       <c r="D54" t="str">
-        <f>IF(ISNUMBER(H54),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A54,"'),",F54,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A54,"'),'",F54,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO944'),16);</v>
       </c>
       <c r="F54">
         <v>16</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO944'),-23);</v>
       </c>
       <c r="H54">
@@ -3916,14 +3938,14 @@
         <v>57</v>
       </c>
       <c r="D55" t="str">
-        <f>IF(ISNUMBER(H55),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A55,"'),",F55,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A55,"'),'",F55,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1001'),8);</v>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1001'),-41);</v>
       </c>
       <c r="H55">
@@ -3950,14 +3972,14 @@
         <v>58</v>
       </c>
       <c r="D56" t="str">
-        <f>IF(ISNUMBER(H56),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A56,"'),",F56,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A56,"'),'",F56,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9051'),20);</v>
       </c>
       <c r="F56">
         <v>20</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9051'),12);</v>
       </c>
       <c r="H56">
@@ -3984,14 +4006,14 @@
         <v>59</v>
       </c>
       <c r="D57" t="str">
-        <f>IF(ISNUMBER(H57),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A57,"'),",F57,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A57,"'),'",F57,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8933'),18);</v>
       </c>
       <c r="F57">
         <v>18</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8933'),14);</v>
       </c>
       <c r="H57">
@@ -4018,14 +4040,14 @@
         <v>60</v>
       </c>
       <c r="D58" t="str">
-        <f>IF(ISNUMBER(H58),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A58,"'),",F58,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A58,"'),'",F58,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR7772'),20);</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR7772'),18);</v>
       </c>
       <c r="H58">
@@ -4052,14 +4074,14 @@
         <v>61</v>
       </c>
       <c r="D59" t="str">
-        <f>IF(ISNUMBER(H59),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A59,"'),",F59,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A59,"'),'",F59,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1169'),25);</v>
       </c>
       <c r="F59">
         <v>25</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1169'),6);</v>
       </c>
       <c r="H59">
@@ -4086,14 +4108,14 @@
         <v>62</v>
       </c>
       <c r="D60" t="str">
-        <f>IF(ISNUMBER(H60),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A60,"'),",F60,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A60,"'),'",F60,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1207'),13);</v>
       </c>
       <c r="F60">
         <v>13</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1207'),7);</v>
       </c>
       <c r="H60">
@@ -4120,14 +4142,14 @@
         <v>63</v>
       </c>
       <c r="D61" t="str">
-        <f>IF(ISNUMBER(H61),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A61,"'),",F61,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A61,"'),'",F61,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='NED3290'),10);</v>
       </c>
       <c r="F61">
         <v>10</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='NED3290'),16);</v>
       </c>
       <c r="H61">
@@ -4154,14 +4176,14 @@
         <v>64</v>
       </c>
       <c r="D62" t="str">
-        <f>IF(ISNUMBER(H62),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A62,"'),",F62,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A62,"'),'",F62,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1103'),27);</v>
       </c>
       <c r="F62">
         <v>27</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1103'),20);</v>
       </c>
       <c r="H62">
@@ -4188,14 +4210,14 @@
         <v>65</v>
       </c>
       <c r="D63" t="str">
-        <f>IF(ISNUMBER(H63),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A63,"'),",F63,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A63,"'),'",F63,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO956'),'21');</v>
       </c>
       <c r="F63">
         <v>21</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO956'),(UFD));</v>
       </c>
       <c r="H63" t="s">
@@ -4222,14 +4244,14 @@
         <v>66</v>
       </c>
       <c r="D64" t="str">
-        <f>IF(ISNUMBER(H64),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A64,"'),",F64,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A64,"'),'",F64,"');"))</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13378'),20);</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13378'),29);</v>
       </c>
       <c r="H64">
@@ -4256,14 +4278,14 @@
         <v>67</v>
       </c>
       <c r="D65" t="str">
-        <f>IF(ISNUMBER(H65),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A65,"'),",F65,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A65,"'),'",F65,"');"))</f>
+        <f t="shared" ref="D65:D128" si="2">IF(ISNUMBER(H65),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A65,"'),",F65,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A65,"'),'",F65,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1034'),19);</v>
       </c>
       <c r="F65">
         <v>19</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1034'),20);</v>
       </c>
       <c r="H65">
@@ -4290,14 +4312,14 @@
         <v>68</v>
       </c>
       <c r="D66" t="str">
-        <f>IF(ISNUMBER(H66),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A66,"'),",F66,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A66,"'),'",F66,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO189'),24);</v>
       </c>
       <c r="F66">
         <v>24</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G129" si="1">IF(ISNUMBER(K66),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A66,"'),",H66,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A66,"'),'",I66,"');"))</f>
+        <f t="shared" ref="G66:G129" si="3">IF(ISNUMBER(K66),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A66,"'),",H66,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A66,"'),'",I66,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO189'),-32);</v>
       </c>
       <c r="H66">
@@ -4324,14 +4346,14 @@
         <v>69</v>
       </c>
       <c r="D67" t="str">
-        <f>IF(ISNUMBER(H67),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A67,"'),",F67,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A67,"'),'",F67,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13612'),23);</v>
       </c>
       <c r="F67">
         <v>23</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13612'),14);</v>
       </c>
       <c r="H67">
@@ -4358,14 +4380,14 @@
         <v>70</v>
       </c>
       <c r="D68" t="str">
-        <f>IF(ISNUMBER(H68),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A68,"'),",F68,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A68,"'),'",F68,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13567'),23);</v>
       </c>
       <c r="F68">
         <v>23</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13567'),2);</v>
       </c>
       <c r="H68">
@@ -4392,14 +4414,14 @@
         <v>71</v>
       </c>
       <c r="D69" t="str">
-        <f>IF(ISNUMBER(H69),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A69,"'),",F69,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A69,"'),'",F69,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13655'),-45);</v>
       </c>
       <c r="F69">
         <v>-45</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13655'),38);</v>
       </c>
       <c r="H69">
@@ -4426,14 +4448,14 @@
         <v>72</v>
       </c>
       <c r="D70" t="str">
-        <f>IF(ISNUMBER(H70),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A70,"'),",F70,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A70,"'),'",F70,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='LAT128'),19);</v>
       </c>
       <c r="F70">
         <v>19</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='LAT128'),24);</v>
       </c>
       <c r="H70">
@@ -4460,14 +4482,14 @@
         <v>74</v>
       </c>
       <c r="D71" t="str">
-        <f>IF(ISNUMBER(H71),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A71,"'),",F71,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A71,"'),'",F71,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO87'),-42);</v>
       </c>
       <c r="F71">
         <v>-42</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO87'),28);</v>
       </c>
       <c r="H71">
@@ -4494,14 +4516,14 @@
         <v>75</v>
       </c>
       <c r="D72" t="str">
-        <f>IF(ISNUMBER(H72),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A72,"'),",F72,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A72,"'),'",F72,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1094'),26);</v>
       </c>
       <c r="F72">
         <v>26</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1094'),6);</v>
       </c>
       <c r="H72">
@@ -4528,14 +4550,14 @@
         <v>76</v>
       </c>
       <c r="D73" t="str">
-        <f>IF(ISNUMBER(H73),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A73,"'),",F73,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A73,"'),'",F73,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE106'),12);</v>
       </c>
       <c r="F73">
         <v>12</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE106'),11);</v>
       </c>
       <c r="H73">
@@ -4562,14 +4584,14 @@
         <v>77</v>
       </c>
       <c r="D74" t="str">
-        <f>IF(ISNUMBER(H74),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A74,"'),",F74,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A74,"'),'",F74,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO377'),30);</v>
       </c>
       <c r="F74">
         <v>30</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO377'),23);</v>
       </c>
       <c r="H74">
@@ -4596,14 +4618,14 @@
         <v>78</v>
       </c>
       <c r="D75" t="str">
-        <f>IF(ISNUMBER(H75),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A75,"'),",F75,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A75,"'),'",F75,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13248'),9);</v>
       </c>
       <c r="F75">
         <v>9</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13248'),33);</v>
       </c>
       <c r="H75">
@@ -4630,14 +4652,14 @@
         <v>79</v>
       </c>
       <c r="D76" t="str">
-        <f>IF(ISNUMBER(H76),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A76,"'),",F76,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A76,"'),'",F76,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12542'),24);</v>
       </c>
       <c r="F76">
         <v>24</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12542'),8);</v>
       </c>
       <c r="H76">
@@ -4664,14 +4686,14 @@
         <v>80</v>
       </c>
       <c r="D77" t="str">
-        <f>IF(ISNUMBER(H77),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A77,"'),",F77,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A77,"'),'",F77,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1088'),30);</v>
       </c>
       <c r="F77">
         <v>30</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1088'),21);</v>
       </c>
       <c r="H77">
@@ -4698,14 +4720,14 @@
         <v>81</v>
       </c>
       <c r="D78" t="str">
-        <f>IF(ISNUMBER(H78),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A78,"'),",F78,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A78,"'),'",F78,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO111'),7);</v>
       </c>
       <c r="F78">
         <v>7</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO111'),18);</v>
       </c>
       <c r="H78">
@@ -4732,14 +4754,14 @@
         <v>82</v>
       </c>
       <c r="D79" t="str">
-        <f>IF(ISNUMBER(H79),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A79,"'),",F79,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A79,"'),'",F79,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8764'),12);</v>
       </c>
       <c r="F79">
         <v>12</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8764'),'19');</v>
       </c>
       <c r="H79">
@@ -4766,14 +4788,14 @@
         <v>83</v>
       </c>
       <c r="D80" t="str">
-        <f>IF(ISNUMBER(H80),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A80,"'),",F80,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A80,"'),'",F80,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13398'),35);</v>
       </c>
       <c r="F80">
         <v>35</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13398'),15);</v>
       </c>
       <c r="H80">
@@ -4800,14 +4822,14 @@
         <v>84</v>
       </c>
       <c r="D81" t="str">
-        <f>IF(ISNUMBER(H81),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A81,"'),",F81,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A81,"'),'",F81,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1178'),44);</v>
       </c>
       <c r="F81">
         <v>44</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1178'),'10');</v>
       </c>
       <c r="H81">
@@ -4834,14 +4856,14 @@
         <v>85</v>
       </c>
       <c r="D82" t="str">
-        <f>IF(ISNUMBER(H82),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A82,"'),",F82,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A82,"'),'",F82,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8675'),11);</v>
       </c>
       <c r="F82">
         <v>11</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8675'),22);</v>
       </c>
       <c r="H82">
@@ -4868,14 +4890,14 @@
         <v>86</v>
       </c>
       <c r="D83" t="str">
-        <f>IF(ISNUMBER(H83),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A83,"'),",F83,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A83,"'),'",F83,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8310'),22);</v>
       </c>
       <c r="F83">
         <v>22</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8310'),19);</v>
       </c>
       <c r="H83">
@@ -4902,14 +4924,14 @@
         <v>87</v>
       </c>
       <c r="D84" t="str">
-        <f>IF(ISNUMBER(H84),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A84,"'),",F84,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A84,"'),'",F84,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1016'),6);</v>
       </c>
       <c r="F84">
         <v>6</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1016'),3);</v>
       </c>
       <c r="H84">
@@ -4936,14 +4958,14 @@
         <v>89</v>
       </c>
       <c r="D85" t="str">
-        <f>IF(ISNUMBER(H85),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A85,"'),",F85,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A85,"'),'",F85,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1745'),29);</v>
       </c>
       <c r="F85">
         <v>29</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1745'),25);</v>
       </c>
       <c r="H85">
@@ -4970,14 +4992,14 @@
         <v>90</v>
       </c>
       <c r="D86" t="str">
-        <f>IF(ISNUMBER(H86),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A86,"'),",F86,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A86,"'),'",F86,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1038'),9);</v>
       </c>
       <c r="F86">
         <v>9</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1038'),14);</v>
       </c>
       <c r="H86">
@@ -5004,14 +5026,14 @@
         <v>91</v>
       </c>
       <c r="D87" t="str">
-        <f>IF(ISNUMBER(H87),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A87,"'),",F87,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A87,"'),'",F87,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1664'),17);</v>
       </c>
       <c r="F87">
         <v>17</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1664'),21);</v>
       </c>
       <c r="H87">
@@ -5038,14 +5060,14 @@
         <v>92</v>
       </c>
       <c r="D88" t="str">
-        <f>IF(ISNUMBER(H88),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A88,"'),",F88,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A88,"'),'",F88,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1126'),9);</v>
       </c>
       <c r="F88">
         <v>9</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1126'),'(BFD)');</v>
       </c>
       <c r="H88">
@@ -5072,14 +5094,14 @@
         <v>94</v>
       </c>
       <c r="D89" t="str">
-        <f>IF(ISNUMBER(H89),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A89,"'),",F89,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A89,"'),'",F89,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO952'),7);</v>
       </c>
       <c r="F89">
         <v>7</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO952'),3);</v>
       </c>
       <c r="H89">
@@ -5106,14 +5128,14 @@
         <v>95</v>
       </c>
       <c r="D90" t="str">
-        <f>IF(ISNUMBER(H90),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A90,"'),",F90,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A90,"'),'",F90,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1244'),34);</v>
       </c>
       <c r="F90">
         <v>34</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1244'),15);</v>
       </c>
       <c r="H90">
@@ -5140,14 +5162,14 @@
         <v>96</v>
       </c>
       <c r="D91" t="str">
-        <f>IF(ISNUMBER(H91),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A91,"'),",F91,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A91,"'),'",F91,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1029'),52);</v>
       </c>
       <c r="F91">
         <v>52</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1029'),38);</v>
       </c>
       <c r="H91">
@@ -5174,14 +5196,14 @@
         <v>97</v>
       </c>
       <c r="D92" t="str">
-        <f>IF(ISNUMBER(H92),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A92,"'),",F92,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A92,"'),'",F92,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8469'),31);</v>
       </c>
       <c r="F92">
         <v>31</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8469'),43);</v>
       </c>
       <c r="H92">
@@ -5208,14 +5230,14 @@
         <v>98</v>
       </c>
       <c r="D93" t="str">
-        <f>IF(ISNUMBER(H93),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A93,"'),",F93,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A93,"'),'",F93,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8341'),22);</v>
       </c>
       <c r="F93">
         <v>22</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8341'),35);</v>
       </c>
       <c r="H93">
@@ -5242,14 +5264,14 @@
         <v>99</v>
       </c>
       <c r="D94" t="str">
-        <f>IF(ISNUMBER(H94),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A94,"'),",F94,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A94,"'),'",F94,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1230'),'17');</v>
       </c>
       <c r="F94">
         <v>17</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1230'),(BFD));</v>
       </c>
       <c r="H94" t="s">
@@ -5276,14 +5298,14 @@
         <v>100</v>
       </c>
       <c r="D95" t="str">
-        <f>IF(ISNUMBER(H95),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A95,"'),",F95,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A95,"'),'",F95,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR7176'),-47);</v>
       </c>
       <c r="F95">
         <v>-47</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR7176'),19);</v>
       </c>
       <c r="H95">
@@ -5310,14 +5332,14 @@
         <v>101</v>
       </c>
       <c r="D96" t="str">
-        <f>IF(ISNUMBER(H96),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A96,"'),",F96,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A96,"'),'",F96,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8063'),25);</v>
       </c>
       <c r="F96">
         <v>25</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8063'),37);</v>
       </c>
       <c r="H96">
@@ -5344,14 +5366,14 @@
         <v>102</v>
       </c>
       <c r="D97" t="str">
-        <f>IF(ISNUMBER(H97),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A97,"'),",F97,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A97,"'),'",F97,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1150'),'10');</v>
       </c>
       <c r="F97">
         <v>10</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1150'),(UFD));</v>
       </c>
       <c r="H97" t="s">
@@ -5378,14 +5400,14 @@
         <v>103</v>
       </c>
       <c r="D98" t="str">
-        <f>IF(ISNUMBER(H98),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A98,"'),",F98,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A98,"'),'",F98,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12582'),27);</v>
       </c>
       <c r="F98">
         <v>27</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12582'),23);</v>
       </c>
       <c r="H98">
@@ -5412,14 +5434,14 @@
         <v>104</v>
       </c>
       <c r="D99" t="str">
-        <f>IF(ISNUMBER(H99),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A99,"'),",F99,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A99,"'),'",F99,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1011'),31);</v>
       </c>
       <c r="F99">
         <v>31</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1011'),-34);</v>
       </c>
       <c r="H99">
@@ -5446,14 +5468,14 @@
         <v>105</v>
       </c>
       <c r="D100" t="str">
-        <f>IF(ISNUMBER(H100),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A100,"'),",F100,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A100,"'),'",F100,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO677'),20);</v>
       </c>
       <c r="F100">
         <v>20</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO677'),15);</v>
       </c>
       <c r="H100">
@@ -5480,14 +5502,14 @@
         <v>106</v>
       </c>
       <c r="D101" t="str">
-        <f>IF(ISNUMBER(H101),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A101,"'),",F101,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A101,"'),'",F101,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE103'),28);</v>
       </c>
       <c r="F101">
         <v>28</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE103'),27);</v>
       </c>
       <c r="H101">
@@ -5514,14 +5536,14 @@
         <v>107</v>
       </c>
       <c r="D102" t="str">
-        <f>IF(ISNUMBER(H102),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A102,"'),",F102,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A102,"'),'",F102,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1230'),21);</v>
       </c>
       <c r="F102">
         <v>21</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1230'),18);</v>
       </c>
       <c r="H102">
@@ -5548,14 +5570,14 @@
         <v>108</v>
       </c>
       <c r="D103" t="str">
-        <f>IF(ISNUMBER(H103),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A103,"'),",F103,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A103,"'),'",F103,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE104'),39);</v>
       </c>
       <c r="F103">
         <v>39</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE104'),23);</v>
       </c>
       <c r="H103">
@@ -5582,14 +5604,14 @@
         <v>109</v>
       </c>
       <c r="D104" t="str">
-        <f>IF(ISNUMBER(H104),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A104,"'),",F104,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A104,"'),'",F104,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1408'),6);</v>
       </c>
       <c r="F104">
         <v>6</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1408'),9);</v>
       </c>
       <c r="H104">
@@ -5616,14 +5638,14 @@
         <v>110</v>
       </c>
       <c r="D105" t="str">
-        <f>IF(ISNUMBER(H105),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A105,"'),",F105,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A105,"'),'",F105,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8677'),39);</v>
       </c>
       <c r="F105">
         <v>39</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8677'),26);</v>
       </c>
       <c r="H105">
@@ -5650,14 +5672,14 @@
         <v>111</v>
       </c>
       <c r="D106" t="str">
-        <f>IF(ISNUMBER(H106),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A106,"'),",F106,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A106,"'),'",F106,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE105'),22);</v>
       </c>
       <c r="F106">
         <v>22</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE105'),37);</v>
       </c>
       <c r="H106">
@@ -5684,14 +5706,14 @@
         <v>112</v>
       </c>
       <c r="D107" t="str">
-        <f>IF(ISNUMBER(H107),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A107,"'),",F107,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A107,"'),'",F107,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1037'),48);</v>
       </c>
       <c r="F107">
         <v>48</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1037'),41);</v>
       </c>
       <c r="H107">
@@ -5718,14 +5740,14 @@
         <v>113</v>
       </c>
       <c r="D108" t="str">
-        <f>IF(ISNUMBER(H108),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A108,"'),",F108,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A108,"'),'",F108,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT996'),'32');</v>
       </c>
       <c r="F108">
         <v>32</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT996'),(DSQ));</v>
       </c>
       <c r="H108" t="s">
@@ -5752,14 +5774,14 @@
         <v>114</v>
       </c>
       <c r="D109" t="str">
-        <f>IF(ISNUMBER(H109),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A109,"'),",F109,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A109,"'),'",F109,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO798'),39);</v>
       </c>
       <c r="F109">
         <v>39</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO798'),17);</v>
       </c>
       <c r="H109">
@@ -5786,14 +5808,14 @@
         <v>115</v>
       </c>
       <c r="D110" t="str">
-        <f>IF(ISNUMBER(H110),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A110,"'),",F110,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A110,"'),'",F110,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1104'),31);</v>
       </c>
       <c r="F110">
         <v>31</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1104'),-46);</v>
       </c>
       <c r="H110">
@@ -5820,14 +5842,14 @@
         <v>116</v>
       </c>
       <c r="D111" t="str">
-        <f>IF(ISNUMBER(H111),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A111,"'),",F111,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A111,"'),'",F111,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO666'),29);</v>
       </c>
       <c r="F111">
         <v>29</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO666'),33);</v>
       </c>
       <c r="H111">
@@ -5854,14 +5876,14 @@
         <v>117</v>
       </c>
       <c r="D112" t="str">
-        <f>IF(ISNUMBER(H112),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A112,"'),",F112,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A112,"'),'",F112,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9087'),'8');</v>
       </c>
       <c r="F112">
         <v>8</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9087'),(BFD));</v>
       </c>
       <c r="H112" t="s">
@@ -5888,14 +5910,14 @@
         <v>118</v>
       </c>
       <c r="D113" t="str">
-        <f>IF(ISNUMBER(H113),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A113,"'),",F113,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A113,"'),'",F113,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO525'),33);</v>
       </c>
       <c r="F113">
         <v>33</v>
       </c>
       <c r="G113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO525'),22);</v>
       </c>
       <c r="H113">
@@ -5922,14 +5944,14 @@
         <v>119</v>
       </c>
       <c r="D114" t="str">
-        <f>IF(ISNUMBER(H114),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A114,"'),",F114,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A114,"'),'",F114,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK18'),23);</v>
       </c>
       <c r="F114">
         <v>23</v>
       </c>
       <c r="G114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK18'),21);</v>
       </c>
       <c r="H114">
@@ -5956,14 +5978,14 @@
         <v>120</v>
       </c>
       <c r="D115" t="str">
-        <f>IF(ISNUMBER(H115),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A115,"'),",F115,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A115,"'),'",F115,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1035'),16);</v>
       </c>
       <c r="F115">
         <v>16</v>
       </c>
       <c r="G115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1035'),14);</v>
       </c>
       <c r="H115">
@@ -5990,14 +6012,14 @@
         <v>121</v>
       </c>
       <c r="D116" t="str">
-        <f>IF(ISNUMBER(H116),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A116,"'),",F116,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A116,"'),'",F116,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13568'),14);</v>
       </c>
       <c r="F116">
         <v>14</v>
       </c>
       <c r="G116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13568'),34);</v>
       </c>
       <c r="H116">
@@ -6024,14 +6046,14 @@
         <v>122</v>
       </c>
       <c r="D117" t="str">
-        <f>IF(ISNUMBER(H117),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A117,"'),",F117,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A117,"'),'",F117,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO750'),'38');</v>
       </c>
       <c r="F117">
         <v>38</v>
       </c>
       <c r="G117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO750'),(BFD));</v>
       </c>
       <c r="H117" t="s">
@@ -6058,14 +6080,14 @@
         <v>123</v>
       </c>
       <c r="D118" t="str">
-        <f>IF(ISNUMBER(H118),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A118,"'),",F118,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A118,"'),'",F118,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11307'),-41);</v>
       </c>
       <c r="F118">
         <v>-41</v>
       </c>
       <c r="G118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11307'),35);</v>
       </c>
       <c r="H118">
@@ -6092,14 +6114,14 @@
         <v>124</v>
       </c>
       <c r="D119" t="str">
-        <f>IF(ISNUMBER(H119),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A119,"'),",F119,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A119,"'),'",F119,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1212'),24);</v>
       </c>
       <c r="F119">
         <v>24</v>
       </c>
       <c r="G119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1212'),30);</v>
       </c>
       <c r="H119">
@@ -6126,14 +6148,14 @@
         <v>125</v>
       </c>
       <c r="D120" t="str">
-        <f>IF(ISNUMBER(H120),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A120,"'),",F120,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A120,"'),'",F120,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO395'),'21');</v>
       </c>
       <c r="F120">
         <v>21</v>
       </c>
       <c r="G120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO395'),(BFD));</v>
       </c>
       <c r="H120" t="s">
@@ -6160,14 +6182,14 @@
         <v>126</v>
       </c>
       <c r="D121" t="str">
-        <f>IF(ISNUMBER(H121),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A121,"'),",F121,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A121,"'),'",F121,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7707'),35);</v>
       </c>
       <c r="F121">
         <v>35</v>
       </c>
       <c r="G121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7707'),24);</v>
       </c>
       <c r="H121">
@@ -6194,14 +6216,14 @@
         <v>127</v>
       </c>
       <c r="D122" t="str">
-        <f>IF(ISNUMBER(H122),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A122,"'),",F122,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A122,"'),'",F122,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1217'),22);</v>
       </c>
       <c r="F122">
         <v>22</v>
       </c>
       <c r="G122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1217'),31);</v>
       </c>
       <c r="H122">
@@ -6228,14 +6250,14 @@
         <v>128</v>
       </c>
       <c r="D123" t="str">
-        <f>IF(ISNUMBER(H123),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A123,"'),",F123,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A123,"'),'",F123,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8874'),44);</v>
       </c>
       <c r="F123">
         <v>44</v>
       </c>
       <c r="G123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8874'),45);</v>
       </c>
       <c r="H123">
@@ -6262,14 +6284,14 @@
         <v>129</v>
       </c>
       <c r="D124" t="str">
-        <f>IF(ISNUMBER(H124),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A124,"'),",F124,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A124,"'),'",F124,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8539'),26);</v>
       </c>
       <c r="F124">
         <v>26</v>
       </c>
       <c r="G124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8539'),26);</v>
       </c>
       <c r="H124">
@@ -6296,14 +6318,14 @@
         <v>130</v>
       </c>
       <c r="D125" t="str">
-        <f>IF(ISNUMBER(H125),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A125,"'),",F125,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A125,"'),'",F125,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1271'),56);</v>
       </c>
       <c r="F125">
         <v>56</v>
       </c>
       <c r="G125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1271'),22);</v>
       </c>
       <c r="H125">
@@ -6330,14 +6352,14 @@
         <v>131</v>
       </c>
       <c r="D126" t="str">
-        <f>IF(ISNUMBER(H126),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A126,"'),",F126,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A126,"'),'",F126,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13573'),63);</v>
       </c>
       <c r="F126">
         <v>63</v>
       </c>
       <c r="G126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13573'),'29');</v>
       </c>
       <c r="H126">
@@ -6364,14 +6386,14 @@
         <v>132</v>
       </c>
       <c r="D127" t="str">
-        <f>IF(ISNUMBER(H127),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A127,"'),",F127,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A127,"'),'",F127,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1303'),34);</v>
       </c>
       <c r="F127">
         <v>34</v>
       </c>
       <c r="G127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1303'),36);</v>
       </c>
       <c r="H127">
@@ -6398,14 +6420,14 @@
         <v>133</v>
       </c>
       <c r="D128" t="str">
-        <f>IF(ISNUMBER(H128),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A128,"'),",F128,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A128,"'),'",F128,"');"))</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO758'),14);</v>
       </c>
       <c r="F128">
         <v>14</v>
       </c>
       <c r="G128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO758'),'13');</v>
       </c>
       <c r="H128">
@@ -6432,14 +6454,14 @@
         <v>136</v>
       </c>
       <c r="D129" t="str">
-        <f>IF(ISNUMBER(H129),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A129,"'),",F129,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A129,"'),'",F129,"');"))</f>
+        <f t="shared" ref="D129:D192" si="4">IF(ISNUMBER(H129),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A129,"'),",F129,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A129,"'),'",F129,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1082'),-61);</v>
       </c>
       <c r="F129">
         <v>-61</v>
       </c>
       <c r="G129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1082'),36);</v>
       </c>
       <c r="H129">
@@ -6466,14 +6488,14 @@
         <v>137</v>
       </c>
       <c r="D130" t="str">
-        <f>IF(ISNUMBER(H130),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A130,"'),",F130,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A130,"'),'",F130,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8975'),13);</v>
       </c>
       <c r="F130">
         <v>13</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" ref="G130:G193" si="2">IF(ISNUMBER(K130),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A130,"'),",H130,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A130,"'),'",I130,"');"))</f>
+        <f t="shared" ref="G130:G193" si="5">IF(ISNUMBER(K130),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A130,"'),",H130,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A130,"'),'",I130,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8975'),17);</v>
       </c>
       <c r="H130">
@@ -6500,14 +6522,14 @@
         <v>138</v>
       </c>
       <c r="D131" t="str">
-        <f>IF(ISNUMBER(H131),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A131,"'),",F131,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A131,"'),'",F131,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO913'),51);</v>
       </c>
       <c r="F131">
         <v>51</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO913'),52);</v>
       </c>
       <c r="H131">
@@ -6534,14 +6556,14 @@
         <v>139</v>
       </c>
       <c r="D132" t="str">
-        <f>IF(ISNUMBER(H132),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A132,"'),",F132,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A132,"'),'",F132,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1095'),35);</v>
       </c>
       <c r="F132">
         <v>35</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1095'),30);</v>
       </c>
       <c r="H132">
@@ -6568,14 +6590,14 @@
         <v>140</v>
       </c>
       <c r="D133" t="str">
-        <f>IF(ISNUMBER(H133),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A133,"'),",F133,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A133,"'),'",F133,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1106'),'45');</v>
       </c>
       <c r="F133">
         <v>45</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1106'),(BFD));</v>
       </c>
       <c r="H133" t="s">
@@ -6602,14 +6624,14 @@
         <v>141</v>
       </c>
       <c r="D134" t="str">
-        <f>IF(ISNUMBER(H134),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A134,"'),",F134,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A134,"'),'",F134,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6982'),42);</v>
       </c>
       <c r="F134">
         <v>42</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6982'),28);</v>
       </c>
       <c r="H134">
@@ -6636,14 +6658,14 @@
         <v>142</v>
       </c>
       <c r="D135" t="str">
-        <f>IF(ISNUMBER(H135),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A135,"'),",F135,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A135,"'),'",F135,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1064'),32);</v>
       </c>
       <c r="F135">
         <v>32</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1064'),34);</v>
       </c>
       <c r="H135">
@@ -6670,14 +6692,14 @@
         <v>143</v>
       </c>
       <c r="D136" t="str">
-        <f>IF(ISNUMBER(H136),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A136,"'),",F136,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A136,"'),'",F136,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1004'),32);</v>
       </c>
       <c r="F136">
         <v>32</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1004'),9);</v>
       </c>
       <c r="H136">
@@ -6704,14 +6726,14 @@
         <v>144</v>
       </c>
       <c r="D137" t="str">
-        <f>IF(ISNUMBER(H137),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A137,"'),",F137,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A137,"'),'",F137,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1197'),29);</v>
       </c>
       <c r="F137">
         <v>29</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1197'),25);</v>
       </c>
       <c r="H137">
@@ -6738,14 +6760,14 @@
         <v>145</v>
       </c>
       <c r="D138" t="str">
-        <f>IF(ISNUMBER(H138),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A138,"'),",F138,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A138,"'),'",F138,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1250'),41);</v>
       </c>
       <c r="F138">
         <v>41</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1250'),19);</v>
       </c>
       <c r="H138">
@@ -6772,14 +6794,14 @@
         <v>146</v>
       </c>
       <c r="D139" t="str">
-        <f>IF(ISNUMBER(H139),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A139,"'),",F139,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A139,"'),'",F139,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13334'),27);</v>
       </c>
       <c r="F139">
         <v>27</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13334'),20);</v>
       </c>
       <c r="H139">
@@ -6806,14 +6828,14 @@
         <v>147</v>
       </c>
       <c r="D140" t="str">
-        <f>IF(ISNUMBER(H140),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A140,"'),",F140,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A140,"'),'",F140,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9032'),58);</v>
       </c>
       <c r="F140">
         <v>58</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9032'),44);</v>
       </c>
       <c r="H140">
@@ -6840,14 +6862,14 @@
         <v>148</v>
       </c>
       <c r="D141" t="str">
-        <f>IF(ISNUMBER(H141),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A141,"'),",F141,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A141,"'),'",F141,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1848'),25);</v>
       </c>
       <c r="F141">
         <v>25</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1848'),31);</v>
       </c>
       <c r="H141">
@@ -6874,14 +6896,14 @@
         <v>149</v>
       </c>
       <c r="D142" t="str">
-        <f>IF(ISNUMBER(H142),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A142,"'),",F142,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A142,"'),'",F142,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13617'),46);</v>
       </c>
       <c r="F142">
         <v>46</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13617'),49);</v>
       </c>
       <c r="H142">
@@ -6908,14 +6930,14 @@
         <v>150</v>
       </c>
       <c r="D143" t="str">
-        <f>IF(ISNUMBER(H143),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A143,"'),",F143,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A143,"'),'",F143,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9033'),37);</v>
       </c>
       <c r="F143">
         <v>37</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9033'),-53);</v>
       </c>
       <c r="H143">
@@ -6942,14 +6964,14 @@
         <v>151</v>
       </c>
       <c r="D144" t="str">
-        <f>IF(ISNUMBER(H144),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A144,"'),",F144,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A144,"'),'",F144,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE102'),-61);</v>
       </c>
       <c r="F144">
         <v>-61</v>
       </c>
       <c r="G144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE102'),32);</v>
       </c>
       <c r="H144">
@@ -6976,14 +6998,14 @@
         <v>152</v>
       </c>
       <c r="D145" t="str">
-        <f>IF(ISNUMBER(H145),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A145,"'),",F145,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A145,"'),'",F145,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8988'),32);</v>
       </c>
       <c r="F145">
         <v>32</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8988'),-47);</v>
       </c>
       <c r="H145">
@@ -7010,14 +7032,14 @@
         <v>153</v>
       </c>
       <c r="D146" t="str">
-        <f>IF(ISNUMBER(H146),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A146,"'),",F146,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A146,"'),'",F146,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO951'),52);</v>
       </c>
       <c r="F146">
         <v>52</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO951'),13);</v>
       </c>
       <c r="H146">
@@ -7044,14 +7066,14 @@
         <v>154</v>
       </c>
       <c r="D147" t="str">
-        <f>IF(ISNUMBER(H147),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A147,"'),",F147,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A147,"'),'",F147,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6981'),53);</v>
       </c>
       <c r="F147">
         <v>53</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6981'),'19');</v>
       </c>
       <c r="H147">
@@ -7078,14 +7100,14 @@
         <v>155</v>
       </c>
       <c r="D148" t="str">
-        <f>IF(ISNUMBER(H148),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A148,"'),",F148,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A148,"'),'",F148,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8456'),48);</v>
       </c>
       <c r="F148">
         <v>48</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8456'),33);</v>
       </c>
       <c r="H148">
@@ -7112,14 +7134,14 @@
         <v>156</v>
       </c>
       <c r="D149" t="str">
-        <f>IF(ISNUMBER(H149),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A149,"'),",F149,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A149,"'),'",F149,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6588'),35);</v>
       </c>
       <c r="F149">
         <v>35</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6588'),39);</v>
       </c>
       <c r="H149">
@@ -7146,14 +7168,14 @@
         <v>157</v>
       </c>
       <c r="D150" t="str">
-        <f>IF(ISNUMBER(H150),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A150,"'),",F150,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A150,"'),'",F150,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13247'),33);</v>
       </c>
       <c r="F150">
         <v>33</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13247'),29);</v>
       </c>
       <c r="H150">
@@ -7180,14 +7202,14 @@
         <v>158</v>
       </c>
       <c r="D151" t="str">
-        <f>IF(ISNUMBER(H151),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A151,"'),",F151,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A151,"'),'",F151,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT2003'),33);</v>
       </c>
       <c r="F151">
         <v>33</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT2003'),27);</v>
       </c>
       <c r="H151">
@@ -7214,14 +7236,14 @@
         <v>159</v>
       </c>
       <c r="D152" t="str">
-        <f>IF(ISNUMBER(H152),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A152,"'),",F152,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A152,"'),'",F152,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1090'),DNF));</v>
       </c>
       <c r="F152" t="s">
         <v>402</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1090'),26);</v>
       </c>
       <c r="H152">
@@ -7248,14 +7270,14 @@
         <v>160</v>
       </c>
       <c r="D153" t="str">
-        <f>IF(ISNUMBER(H153),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A153,"'),",F153,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A153,"'),'",F153,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK654'),43);</v>
       </c>
       <c r="F153">
         <v>43</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK654'),41);</v>
       </c>
       <c r="H153">
@@ -7282,14 +7304,14 @@
         <v>161</v>
       </c>
       <c r="D154" t="str">
-        <f>IF(ISNUMBER(H154),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A154,"'),",F154,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A154,"'),'",F154,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1888'),53);</v>
       </c>
       <c r="F154">
         <v>53</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1888'),32);</v>
       </c>
       <c r="H154">
@@ -7316,14 +7338,14 @@
         <v>162</v>
       </c>
       <c r="D155" t="str">
-        <f>IF(ISNUMBER(H155),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A155,"'),",F155,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A155,"'),'",F155,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1891'),-66);</v>
       </c>
       <c r="F155">
         <v>-66</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1891'),36);</v>
       </c>
       <c r="H155">
@@ -7350,14 +7372,14 @@
         <v>163</v>
       </c>
       <c r="D156" t="str">
-        <f>IF(ISNUMBER(H156),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A156,"'),",F156,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A156,"'),'",F156,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO911'),37);</v>
       </c>
       <c r="F156">
         <v>37</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO911'),25);</v>
       </c>
       <c r="H156">
@@ -7384,14 +7406,14 @@
         <v>164</v>
       </c>
       <c r="D157" t="str">
-        <f>IF(ISNUMBER(H157),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A157,"'),",F157,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A157,"'),'",F157,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO310'),-61);</v>
       </c>
       <c r="F157">
         <v>-61</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO310'),43);</v>
       </c>
       <c r="H157">
@@ -7418,14 +7440,14 @@
         <v>165</v>
       </c>
       <c r="D158" t="str">
-        <f>IF(ISNUMBER(H158),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A158,"'),",F158,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A158,"'),'",F158,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7837'),52);</v>
       </c>
       <c r="F158">
         <v>52</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7837'),27);</v>
       </c>
       <c r="H158">
@@ -7452,14 +7474,14 @@
         <v>166</v>
       </c>
       <c r="D159" t="str">
-        <f>IF(ISNUMBER(H159),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A159,"'),",F159,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A159,"'),'",F159,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO511'),46);</v>
       </c>
       <c r="F159">
         <v>46</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO511'),29);</v>
       </c>
       <c r="H159">
@@ -7486,14 +7508,14 @@
         <v>167</v>
       </c>
       <c r="D160" t="str">
-        <f>IF(ISNUMBER(H160),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A160,"'),",F160,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A160,"'),'",F160,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1138'),'28');</v>
       </c>
       <c r="F160">
         <v>28</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1138'),(DNF));</v>
       </c>
       <c r="H160" t="s">
@@ -7520,14 +7542,14 @@
         <v>168</v>
       </c>
       <c r="D161" t="str">
-        <f>IF(ISNUMBER(H161),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A161,"'),",F161,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A161,"'),'",F161,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK12'),44);</v>
       </c>
       <c r="F161">
         <v>44</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK12'),40);</v>
       </c>
       <c r="H161">
@@ -7554,14 +7576,14 @@
         <v>169</v>
       </c>
       <c r="D162" t="str">
-        <f>IF(ISNUMBER(H162),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A162,"'),",F162,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A162,"'),'",F162,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1243'),43);</v>
       </c>
       <c r="F162">
         <v>43</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1243'),-47);</v>
       </c>
       <c r="H162">
@@ -7588,14 +7610,14 @@
         <v>170</v>
       </c>
       <c r="D163" t="str">
-        <f>IF(ISNUMBER(H163),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A163,"'),",F163,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A163,"'),'",F163,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1185'),23);</v>
       </c>
       <c r="F163">
         <v>23</v>
       </c>
       <c r="G163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1185'),43);</v>
       </c>
       <c r="H163">
@@ -7622,14 +7644,14 @@
         <v>171</v>
       </c>
       <c r="D164" t="str">
-        <f>IF(ISNUMBER(H164),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A164,"'),",F164,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A164,"'),'",F164,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8999'),36);</v>
       </c>
       <c r="F164">
         <v>36</v>
       </c>
       <c r="G164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8999'),40);</v>
       </c>
       <c r="H164">
@@ -7656,14 +7678,14 @@
         <v>172</v>
       </c>
       <c r="D165" t="str">
-        <f>IF(ISNUMBER(H165),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A165,"'),",F165,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A165,"'),'",F165,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1269'),42);</v>
       </c>
       <c r="F165">
         <v>42</v>
       </c>
       <c r="G165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1269'),40);</v>
       </c>
       <c r="H165">
@@ -7690,14 +7712,14 @@
         <v>173</v>
       </c>
       <c r="D166" t="str">
-        <f>IF(ISNUMBER(H166),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A166,"'),",F166,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A166,"'),'",F166,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13552'),24);</v>
       </c>
       <c r="F166">
         <v>24</v>
       </c>
       <c r="G166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13552'),31);</v>
       </c>
       <c r="H166">
@@ -7724,14 +7746,14 @@
         <v>174</v>
       </c>
       <c r="D167" t="str">
-        <f>IF(ISNUMBER(H167),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A167,"'),",F167,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A167,"'),'",F167,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6590'),19);</v>
       </c>
       <c r="F167">
         <v>19</v>
       </c>
       <c r="G167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6590'),46);</v>
       </c>
       <c r="H167">
@@ -7758,14 +7780,14 @@
         <v>175</v>
       </c>
       <c r="D168" t="str">
-        <f>IF(ISNUMBER(H168),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A168,"'),",F168,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A168,"'),'",F168,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13232'),36);</v>
       </c>
       <c r="F168">
         <v>36</v>
       </c>
       <c r="G168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13232'),47);</v>
       </c>
       <c r="H168">
@@ -7792,14 +7814,14 @@
         <v>176</v>
       </c>
       <c r="D169" t="str">
-        <f>IF(ISNUMBER(H169),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A169,"'),",F169,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A169,"'),'",F169,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13238'),51);</v>
       </c>
       <c r="F169">
         <v>51</v>
       </c>
       <c r="G169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13238'),55);</v>
       </c>
       <c r="H169">
@@ -7826,14 +7848,14 @@
         <v>177</v>
       </c>
       <c r="D170" t="str">
-        <f>IF(ISNUMBER(H170),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A170,"'),",F170,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A170,"'),'",F170,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7341'),48);</v>
       </c>
       <c r="F170">
         <v>48</v>
       </c>
       <c r="G170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7341'),60);</v>
       </c>
       <c r="H170">
@@ -7860,14 +7882,14 @@
         <v>178</v>
       </c>
       <c r="D171" t="str">
-        <f>IF(ISNUMBER(H171),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A171,"'),",F171,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A171,"'),'",F171,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8778'),36);</v>
       </c>
       <c r="F171">
         <v>36</v>
       </c>
       <c r="G171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8778'),24);</v>
       </c>
       <c r="H171">
@@ -7894,14 +7916,14 @@
         <v>179</v>
       </c>
       <c r="D172" t="str">
-        <f>IF(ISNUMBER(H172),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A172,"'),",F172,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A172,"'),'",F172,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1156'),55);</v>
       </c>
       <c r="F172">
         <v>55</v>
       </c>
       <c r="G172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1156'),51);</v>
       </c>
       <c r="H172">
@@ -7928,14 +7950,14 @@
         <v>180</v>
       </c>
       <c r="D173" t="str">
-        <f>IF(ISNUMBER(H173),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A173,"'),",F173,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A173,"'),'",F173,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9071'),45);</v>
       </c>
       <c r="F173">
         <v>45</v>
       </c>
       <c r="G173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9071'),42);</v>
       </c>
       <c r="H173">
@@ -7962,14 +7984,14 @@
         <v>181</v>
       </c>
       <c r="D174" t="str">
-        <f>IF(ISNUMBER(H174),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A174,"'),",F174,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A174,"'),'",F174,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1019'),54);</v>
       </c>
       <c r="F174">
         <v>54</v>
       </c>
       <c r="G174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1019'),37);</v>
       </c>
       <c r="H174">
@@ -7996,14 +8018,14 @@
         <v>182</v>
       </c>
       <c r="D175" t="str">
-        <f>IF(ISNUMBER(H175),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A175,"'),",F175,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A175,"'),'",F175,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13176'),43);</v>
       </c>
       <c r="F175">
         <v>43</v>
       </c>
       <c r="G175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13176'),54);</v>
       </c>
       <c r="H175">
@@ -8030,14 +8052,14 @@
         <v>183</v>
       </c>
       <c r="D176" t="str">
-        <f>IF(ISNUMBER(H176),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A176,"'),",F176,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A176,"'),'",F176,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO631'),30);</v>
       </c>
       <c r="F176">
         <v>30</v>
       </c>
       <c r="G176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO631'),50);</v>
       </c>
       <c r="H176">
@@ -8064,14 +8086,14 @@
         <v>184</v>
       </c>
       <c r="D177" t="str">
-        <f>IF(ISNUMBER(H177),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A177,"'),",F177,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A177,"'),'",F177,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7702'),38);</v>
       </c>
       <c r="F177">
         <v>38</v>
       </c>
       <c r="G177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7702'),48);</v>
       </c>
       <c r="H177">
@@ -8098,14 +8120,14 @@
         <v>185</v>
       </c>
       <c r="D178" t="str">
-        <f>IF(ISNUMBER(H178),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A178,"'),",F178,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A178,"'),'",F178,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13270'),50);</v>
       </c>
       <c r="F178">
         <v>50</v>
       </c>
       <c r="G178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13270'),35);</v>
       </c>
       <c r="H178">
@@ -8132,14 +8154,14 @@
         <v>186</v>
       </c>
       <c r="D179" t="str">
-        <f>IF(ISNUMBER(H179),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A179,"'),",F179,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A179,"'),'",F179,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1186'),43);</v>
       </c>
       <c r="F179">
         <v>43</v>
       </c>
       <c r="G179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1186'),36);</v>
       </c>
       <c r="H179">
@@ -8166,14 +8188,14 @@
         <v>187</v>
       </c>
       <c r="D180" t="str">
-        <f>IF(ISNUMBER(H180),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A180,"'),",F180,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A180,"'),'",F180,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12355'),68);</v>
       </c>
       <c r="F180">
         <v>68</v>
       </c>
       <c r="G180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12355'),49);</v>
       </c>
       <c r="H180">
@@ -8200,14 +8222,14 @@
         <v>188</v>
       </c>
       <c r="D181" t="str">
-        <f>IF(ISNUMBER(H181),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A181,"'),",F181,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A181,"'),'",F181,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK905'),45);</v>
       </c>
       <c r="F181">
         <v>45</v>
       </c>
       <c r="G181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK905'),71);</v>
       </c>
       <c r="H181">
@@ -8234,14 +8256,14 @@
         <v>189</v>
       </c>
       <c r="D182" t="str">
-        <f>IF(ISNUMBER(H182),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A182,"'),",F182,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A182,"'),'",F182,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8268'),31);</v>
       </c>
       <c r="F182">
         <v>31</v>
       </c>
       <c r="G182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8268'),34);</v>
       </c>
       <c r="H182">
@@ -8268,14 +8290,14 @@
         <v>190</v>
       </c>
       <c r="D183" t="str">
-        <f>IF(ISNUMBER(H183),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A183,"'),",F183,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A183,"'),'",F183,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13491'),38);</v>
       </c>
       <c r="F183">
         <v>38</v>
       </c>
       <c r="G183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13491'),50);</v>
       </c>
       <c r="H183">
@@ -8302,14 +8324,14 @@
         <v>191</v>
       </c>
       <c r="D184" t="str">
-        <f>IF(ISNUMBER(H184),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A184,"'),",F184,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A184,"'),'",F184,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1016'),52);</v>
       </c>
       <c r="F184">
         <v>52</v>
       </c>
       <c r="G184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1016'),45);</v>
       </c>
       <c r="H184">
@@ -8336,14 +8358,14 @@
         <v>192</v>
       </c>
       <c r="D185" t="str">
-        <f>IF(ISNUMBER(H185),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A185,"'),",F185,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A185,"'),'",F185,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1032'),27);</v>
       </c>
       <c r="F185">
         <v>27</v>
       </c>
       <c r="G185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1032'),50);</v>
       </c>
       <c r="H185">
@@ -8370,14 +8392,14 @@
         <v>193</v>
       </c>
       <c r="D186" t="str">
-        <f>IF(ISNUMBER(H186),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A186,"'),",F186,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A186,"'),'",F186,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO368'),41);</v>
       </c>
       <c r="F186">
         <v>41</v>
       </c>
       <c r="G186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO368'),32);</v>
       </c>
       <c r="H186">
@@ -8404,14 +8426,14 @@
         <v>194</v>
       </c>
       <c r="D187" t="str">
-        <f>IF(ISNUMBER(H187),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A187,"'),",F187,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A187,"'),'",F187,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1158'),38);</v>
       </c>
       <c r="F187">
         <v>38</v>
       </c>
       <c r="G187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1158'),42);</v>
       </c>
       <c r="H187">
@@ -8438,14 +8460,14 @@
         <v>195</v>
       </c>
       <c r="D188" t="str">
-        <f>IF(ISNUMBER(H188),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A188,"'),",F188,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A188,"'),'",F188,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1863'),41);</v>
       </c>
       <c r="F188">
         <v>41</v>
       </c>
       <c r="G188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1863'),-59);</v>
       </c>
       <c r="H188">
@@ -8472,14 +8494,14 @@
         <v>196</v>
       </c>
       <c r="D189" t="str">
-        <f>IF(ISNUMBER(H189),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A189,"'),",F189,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A189,"'),'",F189,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT955'),32);</v>
       </c>
       <c r="F189">
         <v>32</v>
       </c>
       <c r="G189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT955'),27);</v>
       </c>
       <c r="H189">
@@ -8506,14 +8528,14 @@
         <v>197</v>
       </c>
       <c r="D190" t="str">
-        <f>IF(ISNUMBER(H190),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A190,"'),",F190,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A190,"'),'",F190,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE1'),-55);</v>
       </c>
       <c r="F190">
         <v>-55</v>
       </c>
       <c r="G190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE1'),52);</v>
       </c>
       <c r="H190">
@@ -8540,14 +8562,14 @@
         <v>198</v>
       </c>
       <c r="D191" t="str">
-        <f>IF(ISNUMBER(H191),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A191,"'),",F191,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A191,"'),'",F191,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13379'),17);</v>
       </c>
       <c r="F191">
         <v>17</v>
       </c>
       <c r="G191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13379'),69);</v>
       </c>
       <c r="H191">
@@ -8574,14 +8596,14 @@
         <v>200</v>
       </c>
       <c r="D192" t="str">
-        <f>IF(ISNUMBER(H192),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A192,"'),",F192,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A192,"'),'",F192,"');"))</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13664'),53);</v>
       </c>
       <c r="F192">
         <v>53</v>
       </c>
       <c r="G192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13664'),49);</v>
       </c>
       <c r="H192">
@@ -8608,14 +8630,14 @@
         <v>201</v>
       </c>
       <c r="D193" t="str">
-        <f>IF(ISNUMBER(H193),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A193,"'),",F193,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A193,"'),'",F193,"');"))</f>
+        <f t="shared" ref="D193:D256" si="6">IF(ISNUMBER(H193),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A193,"'),",F193,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A193,"'),'",F193,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13015'),54);</v>
       </c>
       <c r="F193">
         <v>54</v>
       </c>
       <c r="G193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13015'),46);</v>
       </c>
       <c r="H193">
@@ -8642,14 +8664,14 @@
         <v>202</v>
       </c>
       <c r="D194" t="str">
-        <f>IF(ISNUMBER(H194),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A194,"'),",F194,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A194,"'),'",F194,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1003'),55);</v>
       </c>
       <c r="F194">
         <v>55</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ref="G194:G257" si="3">IF(ISNUMBER(K194),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A194,"'),",H194,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A194,"'),'",I194,"');"))</f>
+        <f t="shared" ref="G194:G257" si="7">IF(ISNUMBER(K194),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A194,"'),",H194,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A194,"'),'",I194,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1003'),-58);</v>
       </c>
       <c r="H194">
@@ -8676,14 +8698,14 @@
         <v>203</v>
       </c>
       <c r="D195" t="str">
-        <f>IF(ISNUMBER(H195),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A195,"'),",F195,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A195,"'),'",F195,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK700'),29);</v>
       </c>
       <c r="F195">
         <v>29</v>
       </c>
       <c r="G195" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK700'),46);</v>
       </c>
       <c r="H195">
@@ -8710,14 +8732,14 @@
         <v>204</v>
       </c>
       <c r="D196" t="str">
-        <f>IF(ISNUMBER(H196),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A196,"'),",F196,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A196,"'),'",F196,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1'),40);</v>
       </c>
       <c r="F196">
         <v>40</v>
       </c>
       <c r="G196" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1'),40);</v>
       </c>
       <c r="H196">
@@ -8744,14 +8766,14 @@
         <v>205</v>
       </c>
       <c r="D197" t="str">
-        <f>IF(ISNUMBER(H197),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A197,"'),",F197,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A197,"'),'",F197,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1176'),51);</v>
       </c>
       <c r="F197">
         <v>51</v>
       </c>
       <c r="G197" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1176'),35);</v>
       </c>
       <c r="H197">
@@ -8778,14 +8800,14 @@
         <v>206</v>
       </c>
       <c r="D198" t="str">
-        <f>IF(ISNUMBER(H198),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A198,"'),",F198,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A198,"'),'",F198,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1294'),54);</v>
       </c>
       <c r="F198">
         <v>54</v>
       </c>
       <c r="G198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1294'),42);</v>
       </c>
       <c r="H198">
@@ -8812,14 +8834,14 @@
         <v>207</v>
       </c>
       <c r="D199" t="str">
-        <f>IF(ISNUMBER(H199),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A199,"'),",F199,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A199,"'),'",F199,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1886'),60);</v>
       </c>
       <c r="F199">
         <v>60</v>
       </c>
       <c r="G199" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1886'),30);</v>
       </c>
       <c r="H199">
@@ -8846,14 +8868,14 @@
         <v>208</v>
       </c>
       <c r="D200" t="str">
-        <f>IF(ISNUMBER(H200),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A200,"'),",F200,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A200,"'),'",F200,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13203'),46);</v>
       </c>
       <c r="F200">
         <v>46</v>
       </c>
       <c r="G200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13203'),45);</v>
       </c>
       <c r="H200">
@@ -8880,14 +8902,14 @@
         <v>209</v>
       </c>
       <c r="D201" t="str">
-        <f>IF(ISNUMBER(H201),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A201,"'),",F201,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A201,"'),'",F201,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13246'),-65);</v>
       </c>
       <c r="F201">
         <v>-65</v>
       </c>
       <c r="G201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13246'),58);</v>
       </c>
       <c r="H201">
@@ -8914,14 +8936,14 @@
         <v>210</v>
       </c>
       <c r="D202" t="str">
-        <f>IF(ISNUMBER(H202),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A202,"'),",F202,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A202,"'),'",F202,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1256'),-69);</v>
       </c>
       <c r="F202">
         <v>-69</v>
       </c>
       <c r="G202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1256'),44);</v>
       </c>
       <c r="H202">
@@ -8948,14 +8970,14 @@
         <v>211</v>
       </c>
       <c r="D203" t="str">
-        <f>IF(ISNUMBER(H203),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A203,"'),",F203,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A203,"'),'",F203,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13602'),-59);</v>
       </c>
       <c r="F203">
         <v>-59</v>
       </c>
       <c r="G203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13602'),49);</v>
       </c>
       <c r="H203">
@@ -8982,14 +9004,14 @@
         <v>212</v>
       </c>
       <c r="D204" t="str">
-        <f>IF(ISNUMBER(H204),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A204,"'),",F204,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A204,"'),'",F204,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1133'),34);</v>
       </c>
       <c r="F204">
         <v>34</v>
       </c>
       <c r="G204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1133'),38);</v>
       </c>
       <c r="H204">
@@ -9016,14 +9038,14 @@
         <v>213</v>
       </c>
       <c r="D205" t="str">
-        <f>IF(ISNUMBER(H205),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A205,"'),",F205,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A205,"'),'",F205,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO796'),47);</v>
       </c>
       <c r="F205">
         <v>47</v>
       </c>
       <c r="G205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO796'),58);</v>
       </c>
       <c r="H205">
@@ -9050,14 +9072,14 @@
         <v>214</v>
       </c>
       <c r="D206" t="str">
-        <f>IF(ISNUMBER(H206),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A206,"'),",F206,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A206,"'),'",F206,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO512'),69);</v>
       </c>
       <c r="F206">
         <v>69</v>
       </c>
       <c r="G206" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO512'),19);</v>
       </c>
       <c r="H206">
@@ -9084,14 +9106,14 @@
         <v>215</v>
       </c>
       <c r="D207" t="str">
-        <f>IF(ISNUMBER(H207),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A207,"'),",F207,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A207,"'),'",F207,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12102'),39);</v>
       </c>
       <c r="F207">
         <v>39</v>
       </c>
       <c r="G207" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12102'),'41');</v>
       </c>
       <c r="H207">
@@ -9118,14 +9140,14 @@
         <v>216</v>
       </c>
       <c r="D208" t="str">
-        <f>IF(ISNUMBER(H208),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A208,"'),",F208,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A208,"'),'",F208,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8315'),42);</v>
       </c>
       <c r="F208">
         <v>42</v>
       </c>
       <c r="G208" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8315'),56);</v>
       </c>
       <c r="H208">
@@ -9152,14 +9174,14 @@
         <v>217</v>
       </c>
       <c r="D209" t="str">
-        <f>IF(ISNUMBER(H209),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A209,"'),",F209,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A209,"'),'",F209,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1168'),62);</v>
       </c>
       <c r="F209">
         <v>62</v>
       </c>
       <c r="G209" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1168'),63);</v>
       </c>
       <c r="H209">
@@ -9186,14 +9208,14 @@
         <v>218</v>
       </c>
       <c r="D210" t="str">
-        <f>IF(ISNUMBER(H210),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A210,"'),",F210,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A210,"'),'",F210,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1888'),40);</v>
       </c>
       <c r="F210">
         <v>40</v>
       </c>
       <c r="G210" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1888'),48);</v>
       </c>
       <c r="H210">
@@ -9220,14 +9242,14 @@
         <v>219</v>
       </c>
       <c r="D211" t="str">
-        <f>IF(ISNUMBER(H211),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A211,"'),",F211,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A211,"'),'",F211,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1273'),48);</v>
       </c>
       <c r="F211">
         <v>48</v>
       </c>
       <c r="G211" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1273'),43);</v>
       </c>
       <c r="H211">
@@ -9254,14 +9276,14 @@
         <v>220</v>
       </c>
       <c r="D212" t="str">
-        <f>IF(ISNUMBER(H212),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A212,"'),",F212,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A212,"'),'",F212,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB8181'),47);</v>
       </c>
       <c r="F212">
         <v>47</v>
       </c>
       <c r="G212" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB8181'),59);</v>
       </c>
       <c r="H212">
@@ -9288,14 +9310,14 @@
         <v>221</v>
       </c>
       <c r="D213" t="str">
-        <f>IF(ISNUMBER(H213),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A213,"'),",F213,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A213,"'),'",F213,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13052'),-65);</v>
       </c>
       <c r="F213">
         <v>-65</v>
       </c>
       <c r="G213" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13052'),61);</v>
       </c>
       <c r="H213">
@@ -9322,14 +9344,14 @@
         <v>222</v>
       </c>
       <c r="D214" t="str">
-        <f>IF(ISNUMBER(H214),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A214,"'),",F214,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A214,"'),'",F214,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12882'),-69);</v>
       </c>
       <c r="F214">
         <v>-69</v>
       </c>
       <c r="G214" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12882'),44);</v>
       </c>
       <c r="H214">
@@ -9356,14 +9378,14 @@
         <v>223</v>
       </c>
       <c r="D215" t="str">
-        <f>IF(ISNUMBER(H215),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A215,"'),",F215,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A215,"'),'",F215,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK782'),28);</v>
       </c>
       <c r="F215">
         <v>28</v>
       </c>
       <c r="G215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK782'),42);</v>
       </c>
       <c r="H215">
@@ -9390,14 +9412,14 @@
         <v>224</v>
       </c>
       <c r="D216" t="str">
-        <f>IF(ISNUMBER(H216),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A216,"'),",F216,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A216,"'),'",F216,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8466'),56);</v>
       </c>
       <c r="F216">
         <v>56</v>
       </c>
       <c r="G216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8466'),'53');</v>
       </c>
       <c r="H216">
@@ -9424,14 +9446,14 @@
         <v>225</v>
       </c>
       <c r="D217" t="str">
-        <f>IF(ISNUMBER(H217),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A217,"'),",F217,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A217,"'),'",F217,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12601'),40);</v>
       </c>
       <c r="F217">
         <v>40</v>
       </c>
       <c r="G217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12601'),62);</v>
       </c>
       <c r="H217">
@@ -9458,14 +9480,14 @@
         <v>226</v>
       </c>
       <c r="D218" t="str">
-        <f>IF(ISNUMBER(H218),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A218,"'),",F218,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A218,"'),'",F218,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12792'),40);</v>
       </c>
       <c r="F218">
         <v>40</v>
       </c>
       <c r="G218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12792'),41);</v>
       </c>
       <c r="H218">
@@ -9492,14 +9514,14 @@
         <v>227</v>
       </c>
       <c r="D219" t="str">
-        <f>IF(ISNUMBER(H219),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A219,"'),",F219,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A219,"'),'",F219,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13295'),-77);</v>
       </c>
       <c r="F219">
         <v>-77</v>
       </c>
       <c r="G219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13295'),57);</v>
       </c>
       <c r="H219">
@@ -9526,14 +9548,14 @@
         <v>228</v>
       </c>
       <c r="D220" t="str">
-        <f>IF(ISNUMBER(H220),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A220,"'),",F220,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A220,"'),'",F220,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8229'),72);</v>
       </c>
       <c r="F220">
         <v>72</v>
       </c>
       <c r="G220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8229'),65);</v>
       </c>
       <c r="H220">
@@ -9560,14 +9582,14 @@
         <v>229</v>
       </c>
       <c r="D221" t="str">
-        <f>IF(ISNUMBER(H221),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A221,"'),",F221,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A221,"'),'",F221,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK13'),46);</v>
       </c>
       <c r="F221">
         <v>46</v>
       </c>
       <c r="G221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK13'),55);</v>
       </c>
       <c r="H221">
@@ -9594,14 +9616,14 @@
         <v>230</v>
       </c>
       <c r="D222" t="str">
-        <f>IF(ISNUMBER(H222),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A222,"'),",F222,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A222,"'),'",F222,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1885'),57);</v>
       </c>
       <c r="F222">
         <v>57</v>
       </c>
       <c r="G222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1885'),64);</v>
       </c>
       <c r="H222">
@@ -9628,14 +9650,14 @@
         <v>231</v>
       </c>
       <c r="D223" t="str">
-        <f>IF(ISNUMBER(H223),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A223,"'),",F223,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A223,"'),'",F223,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6844'),59);</v>
       </c>
       <c r="F223">
         <v>59</v>
       </c>
       <c r="G223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6844'),'63');</v>
       </c>
       <c r="H223">
@@ -9662,14 +9684,14 @@
         <v>232</v>
       </c>
       <c r="D224" t="str">
-        <f>IF(ISNUMBER(H224),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A224,"'),",F224,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A224,"'),'",F224,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO955'),55);</v>
       </c>
       <c r="F224">
         <v>55</v>
       </c>
       <c r="G224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO955'),55);</v>
       </c>
       <c r="H224">
@@ -9696,14 +9718,14 @@
         <v>233</v>
       </c>
       <c r="D225" t="str">
-        <f>IF(ISNUMBER(H225),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A225,"'),",F225,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A225,"'),'",F225,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK13142'),44);</v>
       </c>
       <c r="F225">
         <v>44</v>
       </c>
       <c r="G225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK13142'),28);</v>
       </c>
       <c r="H225">
@@ -9730,14 +9752,14 @@
         <v>234</v>
       </c>
       <c r="D226" t="str">
-        <f>IF(ISNUMBER(H226),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A226,"'),",F226,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A226,"'),'",F226,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13279'),49);</v>
       </c>
       <c r="F226">
         <v>49</v>
       </c>
       <c r="G226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13279'),45);</v>
       </c>
       <c r="H226">
@@ -9764,14 +9786,14 @@
         <v>235</v>
       </c>
       <c r="D227" t="str">
-        <f>IF(ISNUMBER(H227),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A227,"'),",F227,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A227,"'),'",F227,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7172'),63);</v>
       </c>
       <c r="F227">
         <v>63</v>
       </c>
       <c r="G227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7172'),51);</v>
       </c>
       <c r="H227">
@@ -9798,14 +9820,14 @@
         <v>236</v>
       </c>
       <c r="D228" t="str">
-        <f>IF(ISNUMBER(H228),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A228,"'),",F228,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A228,"'),'",F228,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO729'),53);</v>
       </c>
       <c r="F228">
         <v>53</v>
       </c>
       <c r="G228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO729'),51);</v>
       </c>
       <c r="H228">
@@ -9832,14 +9854,14 @@
         <v>237</v>
       </c>
       <c r="D229" t="str">
-        <f>IF(ISNUMBER(H229),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A229,"'),",F229,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A229,"'),'",F229,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK541'),69);</v>
       </c>
       <c r="F229">
         <v>69</v>
       </c>
       <c r="G229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK541'),'20');</v>
       </c>
       <c r="H229">
@@ -9866,14 +9888,14 @@
         <v>238</v>
       </c>
       <c r="D230" t="str">
-        <f>IF(ISNUMBER(H230),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A230,"'),",F230,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A230,"'),'",F230,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8467'),36);</v>
       </c>
       <c r="F230">
         <v>36</v>
       </c>
       <c r="G230" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8467'),52);</v>
       </c>
       <c r="H230">
@@ -9900,14 +9922,14 @@
         <v>239</v>
       </c>
       <c r="D231" t="str">
-        <f>IF(ISNUMBER(H231),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A231,"'),",F231,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A231,"'),'",F231,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8383'),59);</v>
       </c>
       <c r="F231">
         <v>59</v>
       </c>
       <c r="G231" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8383'),59);</v>
       </c>
       <c r="H231">
@@ -9934,14 +9956,14 @@
         <v>240</v>
       </c>
       <c r="D232" t="str">
-        <f>IF(ISNUMBER(H232),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A232,"'),",F232,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A232,"'),'",F232,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO2112'),26);</v>
       </c>
       <c r="F232">
         <v>26</v>
       </c>
       <c r="G232" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO2112'),59);</v>
       </c>
       <c r="H232">
@@ -9968,14 +9990,14 @@
         <v>241</v>
       </c>
       <c r="D233" t="str">
-        <f>IF(ISNUMBER(H233),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A233,"'),",F233,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A233,"'),'",F233,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11678'),'61');</v>
       </c>
       <c r="F233">
         <v>61</v>
       </c>
       <c r="G233" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11678'),'48');</v>
       </c>
       <c r="H233" t="s">
@@ -10002,14 +10024,14 @@
         <v>242</v>
       </c>
       <c r="D234" t="str">
-        <f>IF(ISNUMBER(H234),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A234,"'),",F234,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A234,"'),'",F234,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12594'),UFD));</v>
       </c>
       <c r="F234" t="s">
         <v>403</v>
       </c>
       <c r="G234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12594'),50);</v>
       </c>
       <c r="H234">
@@ -10036,14 +10058,14 @@
         <v>243</v>
       </c>
       <c r="D235" t="str">
-        <f>IF(ISNUMBER(H235),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A235,"'),",F235,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A235,"'),'",F235,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13557'),56);</v>
       </c>
       <c r="F235">
         <v>56</v>
       </c>
       <c r="G235" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13557'),66);</v>
       </c>
       <c r="H235">
@@ -10070,14 +10092,14 @@
         <v>244</v>
       </c>
       <c r="D236" t="str">
-        <f>IF(ISNUMBER(H236),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A236,"'),",F236,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A236,"'),'",F236,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7742'),8);</v>
       </c>
       <c r="F236">
         <v>8</v>
       </c>
       <c r="G236" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7742'),18);</v>
       </c>
       <c r="H236">
@@ -10104,14 +10126,14 @@
         <v>245</v>
       </c>
       <c r="D237" t="str">
-        <f>IF(ISNUMBER(H237),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A237,"'),",F237,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A237,"'),'",F237,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13296'),68);</v>
       </c>
       <c r="F237">
         <v>68</v>
       </c>
       <c r="G237" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13296'),70);</v>
       </c>
       <c r="H237">
@@ -10138,14 +10160,14 @@
         <v>246</v>
       </c>
       <c r="D238" t="str">
-        <f>IF(ISNUMBER(H238),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A238,"'),",F238,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A238,"'),'",F238,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12651'),-63);</v>
       </c>
       <c r="F238">
         <v>-63</v>
       </c>
       <c r="G238" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12651'),63);</v>
       </c>
       <c r="H238">
@@ -10172,14 +10194,14 @@
         <v>247</v>
       </c>
       <c r="D239" t="str">
-        <f>IF(ISNUMBER(H239),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A239,"'),",F239,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A239,"'),'",F239,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7355'),62);</v>
       </c>
       <c r="F239">
         <v>62</v>
       </c>
       <c r="G239" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7355'),-68);</v>
       </c>
       <c r="H239">
@@ -10206,14 +10228,14 @@
         <v>248</v>
       </c>
       <c r="D240" t="str">
-        <f>IF(ISNUMBER(H240),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A240,"'),",F240,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A240,"'),'",F240,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1304'),59);</v>
       </c>
       <c r="F240">
         <v>59</v>
       </c>
       <c r="G240" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1304'),62);</v>
       </c>
       <c r="H240">
@@ -10240,14 +10262,14 @@
         <v>249</v>
       </c>
       <c r="D241" t="str">
-        <f>IF(ISNUMBER(H241),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A241,"'),",F241,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A241,"'),'",F241,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12983'),-73);</v>
       </c>
       <c r="F241">
         <v>-73</v>
       </c>
       <c r="G241" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12983'),63);</v>
       </c>
       <c r="H241">
@@ -10274,14 +10296,14 @@
         <v>250</v>
       </c>
       <c r="D242" t="str">
-        <f>IF(ISNUMBER(H242),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A242,"'),",F242,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A242,"'),'",F242,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1198'),60);</v>
       </c>
       <c r="F242">
         <v>60</v>
       </c>
       <c r="G242" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1198'),48);</v>
       </c>
       <c r="H242">
@@ -10308,14 +10330,14 @@
         <v>251</v>
       </c>
       <c r="D243" t="str">
-        <f>IF(ISNUMBER(H243),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A243,"'),",F243,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A243,"'),'",F243,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT785'),56);</v>
       </c>
       <c r="F243">
         <v>56</v>
       </c>
       <c r="G243" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT785'),61);</v>
       </c>
       <c r="H243">
@@ -10342,14 +10364,14 @@
         <v>252</v>
       </c>
       <c r="D244" t="str">
-        <f>IF(ISNUMBER(H244),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A244,"'),",F244,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A244,"'),'",F244,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO131'),28);</v>
       </c>
       <c r="F244">
         <v>28</v>
       </c>
       <c r="G244" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO131'),47);</v>
       </c>
       <c r="H244">
@@ -10376,14 +10398,14 @@
         <v>253</v>
       </c>
       <c r="D245" t="str">
-        <f>IF(ISNUMBER(H245),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A245,"'),",F245,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A245,"'),'",F245,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7369'),49);</v>
       </c>
       <c r="F245">
         <v>49</v>
       </c>
       <c r="G245" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7369'),57);</v>
       </c>
       <c r="H245">
@@ -10410,14 +10432,14 @@
         <v>254</v>
       </c>
       <c r="D246" t="str">
-        <f>IF(ISNUMBER(H246),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A246,"'),",F246,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A246,"'),'",F246,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11498'),57);</v>
       </c>
       <c r="F246">
         <v>57</v>
       </c>
       <c r="G246" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11498'),39);</v>
       </c>
       <c r="H246">
@@ -10444,14 +10466,14 @@
         <v>255</v>
       </c>
       <c r="D247" t="str">
-        <f>IF(ISNUMBER(H247),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A247,"'),",F247,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A247,"'),'",F247,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1197'),60);</v>
       </c>
       <c r="F247">
         <v>60</v>
       </c>
       <c r="G247" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1197'),66);</v>
       </c>
       <c r="H247">
@@ -10478,14 +10500,14 @@
         <v>256</v>
       </c>
       <c r="D248" t="str">
-        <f>IF(ISNUMBER(H248),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A248,"'),",F248,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A248,"'),'",F248,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7667'),64);</v>
       </c>
       <c r="F248">
         <v>64</v>
       </c>
       <c r="G248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7667'),56);</v>
       </c>
       <c r="H248">
@@ -10512,14 +10534,14 @@
         <v>257</v>
       </c>
       <c r="D249" t="str">
-        <f>IF(ISNUMBER(H249),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A249,"'),",F249,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A249,"'),'",F249,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1291'),'51');</v>
       </c>
       <c r="F249">
         <v>51</v>
       </c>
       <c r="G249" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1291'),(DNF));</v>
       </c>
       <c r="H249" t="s">
@@ -10546,14 +10568,14 @@
         <v>258</v>
       </c>
       <c r="D250" t="str">
-        <f>IF(ISNUMBER(H250),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A250,"'),",F250,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A250,"'),'",F250,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13286'),-75);</v>
       </c>
       <c r="F250">
         <v>-75</v>
       </c>
       <c r="G250" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13286'),60);</v>
       </c>
       <c r="H250">
@@ -10580,14 +10602,14 @@
         <v>259</v>
       </c>
       <c r="D251" t="str">
-        <f>IF(ISNUMBER(H251),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A251,"'),",F251,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A251,"'),'",F251,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9060'),60);</v>
       </c>
       <c r="F251">
         <v>60</v>
       </c>
       <c r="G251" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9060'),54);</v>
       </c>
       <c r="H251">
@@ -10614,14 +10636,14 @@
         <v>260</v>
       </c>
       <c r="D252" t="str">
-        <f>IF(ISNUMBER(H252),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A252,"'),",F252,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A252,"'),'",F252,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1192'),50);</v>
       </c>
       <c r="F252">
         <v>50</v>
       </c>
       <c r="G252" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1192'),65);</v>
       </c>
       <c r="H252">
@@ -10648,14 +10670,14 @@
         <v>261</v>
       </c>
       <c r="D253" t="str">
-        <f>IF(ISNUMBER(H253),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A253,"'),",F253,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A253,"'),'",F253,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9058'),47);</v>
       </c>
       <c r="F253">
         <v>47</v>
       </c>
       <c r="G253" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA9058'),53);</v>
       </c>
       <c r="H253">
@@ -10682,14 +10704,14 @@
         <v>262</v>
       </c>
       <c r="D254" t="str">
-        <f>IF(ISNUMBER(H254),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A254,"'),",F254,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A254,"'),'",F254,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1116'),-79);</v>
       </c>
       <c r="F254">
         <v>-79</v>
       </c>
       <c r="G254" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1116'),51);</v>
       </c>
       <c r="H254">
@@ -10716,14 +10738,14 @@
         <v>263</v>
       </c>
       <c r="D255" t="str">
-        <f>IF(ISNUMBER(H255),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A255,"'),",F255,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A255,"'),'",F255,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8499'),65);</v>
       </c>
       <c r="F255">
         <v>65</v>
       </c>
       <c r="G255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8499'),61);</v>
       </c>
       <c r="H255">
@@ -10750,14 +10772,14 @@
         <v>264</v>
       </c>
       <c r="D256" t="str">
-        <f>IF(ISNUMBER(H256),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A256,"'),",F256,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A256,"'),'",F256,"');"))</f>
+        <f t="shared" si="6"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO972'),58);</v>
       </c>
       <c r="F256">
         <v>58</v>
       </c>
       <c r="G256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO972'),64);</v>
       </c>
       <c r="H256">
@@ -10784,14 +10806,14 @@
         <v>265</v>
       </c>
       <c r="D257" t="str">
-        <f>IF(ISNUMBER(H257),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A257,"'),",F257,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A257,"'),'",F257,"');"))</f>
+        <f t="shared" ref="D257:D320" si="8">IF(ISNUMBER(H257),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A257,"'),",F257,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A257,"'),'",F257,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO443'),DNF));</v>
       </c>
       <c r="F257" t="s">
         <v>402</v>
       </c>
       <c r="G257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO443'),63);</v>
       </c>
       <c r="H257">
@@ -10818,14 +10840,14 @@
         <v>266</v>
       </c>
       <c r="D258" t="str">
-        <f>IF(ISNUMBER(H258),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A258,"'),",F258,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A258,"'),'",F258,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13129'),54);</v>
       </c>
       <c r="F258">
         <v>54</v>
       </c>
       <c r="G258" t="str">
-        <f t="shared" ref="G258:G321" si="4">IF(ISNUMBER(K258),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A258,"'),",H258,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A258,"'),'",I258,"');"))</f>
+        <f t="shared" ref="G258:G321" si="9">IF(ISNUMBER(K258),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A258,"'),",H258,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A258,"'),'",I258,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13129'),'(BFD)');</v>
       </c>
       <c r="H258">
@@ -10852,14 +10874,14 @@
         <v>267</v>
       </c>
       <c r="D259" t="str">
-        <f>IF(ISNUMBER(H259),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A259,"'),",F259,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A259,"'),'",F259,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB1171'),62);</v>
       </c>
       <c r="F259">
         <v>62</v>
       </c>
       <c r="G259" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB1171'),57);</v>
       </c>
       <c r="H259">
@@ -10886,14 +10908,14 @@
         <v>268</v>
       </c>
       <c r="D260" t="str">
-        <f>IF(ISNUMBER(H260),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A260,"'),",F260,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A260,"'),'",F260,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1883'),67);</v>
       </c>
       <c r="F260">
         <v>67</v>
       </c>
       <c r="G260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1883'),60);</v>
       </c>
       <c r="H260">
@@ -10920,14 +10942,14 @@
         <v>269</v>
       </c>
       <c r="D261" t="str">
-        <f>IF(ISNUMBER(H261),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A261,"'),",F261,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A261,"'),'",F261,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8184'),75);</v>
       </c>
       <c r="F261">
         <v>75</v>
       </c>
       <c r="G261" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8184'),66);</v>
       </c>
       <c r="H261">
@@ -10954,14 +10976,14 @@
         <v>270</v>
       </c>
       <c r="D262" t="str">
-        <f>IF(ISNUMBER(H262),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A262,"'),",F262,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A262,"'),'",F262,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO372'),34);</v>
       </c>
       <c r="F262">
         <v>34</v>
       </c>
       <c r="G262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO372'),'23');</v>
       </c>
       <c r="H262">
@@ -10988,14 +11010,14 @@
         <v>271</v>
       </c>
       <c r="D263" t="str">
-        <f>IF(ISNUMBER(H263),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A263,"'),",F263,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A263,"'),'",F263,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13407'),63);</v>
       </c>
       <c r="F263">
         <v>63</v>
       </c>
       <c r="G263" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13407'),66);</v>
       </c>
       <c r="H263">
@@ -11022,14 +11044,14 @@
         <v>272</v>
       </c>
       <c r="D264" t="str">
-        <f>IF(ISNUMBER(H264),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A264,"'),",F264,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A264,"'),'",F264,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE101'),DNF));</v>
       </c>
       <c r="F264" t="s">
         <v>402</v>
       </c>
       <c r="G264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AZE101'),'BFD');</v>
       </c>
       <c r="H264">
@@ -11056,14 +11078,14 @@
         <v>273</v>
       </c>
       <c r="D265" t="str">
-        <f>IF(ISNUMBER(H265),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A265,"'),",F265,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A265,"'),'",F265,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8761'),DNF));</v>
       </c>
       <c r="F265" t="s">
         <v>402</v>
       </c>
       <c r="G265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8761'),65);</v>
       </c>
       <c r="H265">
@@ -11090,14 +11112,14 @@
         <v>274</v>
       </c>
       <c r="D266" t="str">
-        <f>IF(ISNUMBER(H266),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A266,"'),",F266,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A266,"'),'",F266,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12981'),-72);</v>
       </c>
       <c r="F266">
         <v>-72</v>
       </c>
       <c r="G266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12981'),72);</v>
       </c>
       <c r="H266">
@@ -11124,14 +11146,14 @@
         <v>275</v>
       </c>
       <c r="D267" t="str">
-        <f>IF(ISNUMBER(H267),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A267,"'),",F267,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A267,"'),'",F267,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13077'),71);</v>
       </c>
       <c r="F267">
         <v>71</v>
       </c>
       <c r="G267" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13077'),'(BFD)');</v>
       </c>
       <c r="H267">
@@ -11158,14 +11180,14 @@
         <v>276</v>
       </c>
       <c r="D268" t="str">
-        <f>IF(ISNUMBER(H268),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A268,"'),",F268,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A268,"'),'",F268,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO759'),'64');</v>
       </c>
       <c r="F268">
         <v>64</v>
       </c>
       <c r="G268" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO759'),(DNF));</v>
       </c>
       <c r="H268" t="s">
@@ -11192,14 +11214,14 @@
         <v>277</v>
       </c>
       <c r="D269" t="str">
-        <f>IF(ISNUMBER(H269),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A269,"'),",F269,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A269,"'),'",F269,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8565'),64);</v>
       </c>
       <c r="F269">
         <v>64</v>
       </c>
       <c r="G269" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8565'),64);</v>
       </c>
       <c r="H269">
@@ -11226,14 +11248,14 @@
         <v>278</v>
       </c>
       <c r="D270" t="str">
-        <f>IF(ISNUMBER(H270),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A270,"'),",F270,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A270,"'),'",F270,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT946'),66);</v>
       </c>
       <c r="F270">
         <v>66</v>
       </c>
       <c r="G270" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT946'),53);</v>
       </c>
       <c r="H270">
@@ -11260,14 +11282,14 @@
         <v>279</v>
       </c>
       <c r="D271" t="str">
-        <f>IF(ISNUMBER(H271),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A271,"'),",F271,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A271,"'),'",F271,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO912'),57);</v>
       </c>
       <c r="F271">
         <v>57</v>
       </c>
       <c r="G271" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO912'),64);</v>
       </c>
       <c r="H271">
@@ -11294,14 +11316,14 @@
         <v>280</v>
       </c>
       <c r="D272" t="str">
-        <f>IF(ISNUMBER(H272),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A272,"'),",F272,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A272,"'),'",F272,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13492'),67);</v>
       </c>
       <c r="F272">
         <v>67</v>
       </c>
       <c r="G272" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13492'),67);</v>
       </c>
       <c r="H272">
@@ -11328,14 +11350,14 @@
         <v>281</v>
       </c>
       <c r="D273" t="str">
-        <f>IF(ISNUMBER(H273),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A273,"'),",F273,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A273,"'),'",F273,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8532'),74);</v>
       </c>
       <c r="F273">
         <v>74</v>
       </c>
       <c r="G273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8532'),55);</v>
       </c>
       <c r="H273">
@@ -11362,14 +11384,14 @@
         <v>282</v>
       </c>
       <c r="D274" t="str">
-        <f>IF(ISNUMBER(H274),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A274,"'),",F274,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A274,"'),'",F274,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7708'),49);</v>
       </c>
       <c r="F274">
         <v>49</v>
       </c>
       <c r="G274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7708'),38);</v>
       </c>
       <c r="H274">
@@ -11396,14 +11418,14 @@
         <v>283</v>
       </c>
       <c r="D275" t="str">
-        <f>IF(ISNUMBER(H275),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A275,"'),",F275,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A275,"'),'",F275,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1215'),37);</v>
       </c>
       <c r="F275">
         <v>37</v>
       </c>
       <c r="G275" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1215'),'17');</v>
       </c>
       <c r="H275">
@@ -11430,14 +11452,14 @@
         <v>284</v>
       </c>
       <c r="D276" t="str">
-        <f>IF(ISNUMBER(H276),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A276,"'),",F276,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A276,"'),'",F276,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1062'),67);</v>
       </c>
       <c r="F276">
         <v>67</v>
       </c>
       <c r="G276" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1062'),65);</v>
       </c>
       <c r="H276">
@@ -11464,14 +11486,14 @@
         <v>285</v>
       </c>
       <c r="D277" t="str">
-        <f>IF(ISNUMBER(H277),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A277,"'),",F277,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A277,"'),'",F277,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='LAT129'),68);</v>
       </c>
       <c r="F277">
         <v>68</v>
       </c>
       <c r="G277" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='LAT129'),56);</v>
       </c>
       <c r="H277">
@@ -11498,14 +11520,14 @@
         <v>286</v>
       </c>
       <c r="D278" t="str">
-        <f>IF(ISNUMBER(H278),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A278,"'),",F278,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A278,"'),'",F278,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1113'),DNF));</v>
       </c>
       <c r="F278" t="s">
         <v>402</v>
       </c>
       <c r="G278" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='CRO1113'),69);</v>
       </c>
       <c r="H278">
@@ -11532,14 +11554,14 @@
         <v>287</v>
       </c>
       <c r="D279" t="str">
-        <f>IF(ISNUMBER(H279),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A279,"'),",F279,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A279,"'),'",F279,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='LAT114'),49);</v>
       </c>
       <c r="F279">
         <v>49</v>
       </c>
       <c r="G279" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='LAT114'),'55');</v>
       </c>
       <c r="H279">
@@ -11566,14 +11588,14 @@
         <v>288</v>
       </c>
       <c r="D280" t="str">
-        <f>IF(ISNUMBER(H280),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A280,"'),",F280,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A280,"'),'",F280,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12460'),71);</v>
       </c>
       <c r="F280">
         <v>71</v>
       </c>
       <c r="G280" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12460'),57);</v>
       </c>
       <c r="H280">
@@ -11600,14 +11622,14 @@
         <v>289</v>
       </c>
       <c r="D281" t="str">
-        <f>IF(ISNUMBER(H281),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A281,"'),",F281,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A281,"'),'",F281,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB666'),DNF));</v>
       </c>
       <c r="F281" t="s">
         <v>402</v>
       </c>
       <c r="G281" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB666'),62);</v>
       </c>
       <c r="H281">
@@ -11634,14 +11656,14 @@
         <v>290</v>
       </c>
       <c r="D282" t="str">
-        <f>IF(ISNUMBER(H282),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A282,"'),",F282,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A282,"'),'",F282,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13269'),DNF));</v>
       </c>
       <c r="F282" t="s">
         <v>402</v>
       </c>
       <c r="G282" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13269'),60);</v>
       </c>
       <c r="H282">
@@ -11668,14 +11690,14 @@
         <v>291</v>
       </c>
       <c r="D283" t="str">
-        <f>IF(ISNUMBER(H283),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A283,"'),",F283,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A283,"'),'",F283,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1251'),57);</v>
       </c>
       <c r="F283">
         <v>57</v>
       </c>
       <c r="G283" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1251'),70);</v>
       </c>
       <c r="H283">
@@ -11702,14 +11724,14 @@
         <v>292</v>
       </c>
       <c r="D284" t="str">
-        <f>IF(ISNUMBER(H284),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A284,"'),",F284,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A284,"'),'",F284,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8333'),50);</v>
       </c>
       <c r="F284">
         <v>50</v>
       </c>
       <c r="G284" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8333'),21);</v>
       </c>
       <c r="H284">
@@ -11736,14 +11758,14 @@
         <v>293</v>
       </c>
       <c r="D285" t="str">
-        <f>IF(ISNUMBER(H285),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A285,"'),",F285,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A285,"'),'",F285,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO720'),62);</v>
       </c>
       <c r="F285">
         <v>62</v>
       </c>
       <c r="G285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO720'),69);</v>
       </c>
       <c r="H285">
@@ -11770,14 +11792,14 @@
         <v>294</v>
       </c>
       <c r="D286" t="str">
-        <f>IF(ISNUMBER(H286),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A286,"'),",F286,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A286,"'),'",F286,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1122'),72);</v>
       </c>
       <c r="F286">
         <v>72</v>
       </c>
       <c r="G286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1122'),'41');</v>
       </c>
       <c r="H286">
@@ -11804,14 +11826,14 @@
         <v>295</v>
       </c>
       <c r="D287" t="str">
-        <f>IF(ISNUMBER(H287),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A287,"'),",F287,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A287,"'),'",F287,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT6666'),'DNF)');</v>
       </c>
       <c r="F287" t="s">
         <v>402</v>
       </c>
       <c r="G287" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT6666'),DNF);</v>
       </c>
       <c r="H287" t="s">
@@ -11838,14 +11860,14 @@
         <v>296</v>
       </c>
       <c r="D288" t="str">
-        <f>IF(ISNUMBER(H288),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A288,"'),",F288,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A288,"'),'",F288,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8574'),67);</v>
       </c>
       <c r="F288">
         <v>67</v>
       </c>
       <c r="G288" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8574'),72);</v>
       </c>
       <c r="H288">
@@ -11872,14 +11894,14 @@
         <v>297</v>
       </c>
       <c r="D289" t="str">
-        <f>IF(ISNUMBER(H289),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A289,"'),",F289,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A289,"'),'",F289,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1292'),70);</v>
       </c>
       <c r="F289">
         <v>70</v>
       </c>
       <c r="G289" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1292'),54);</v>
       </c>
       <c r="H289">
@@ -11906,14 +11928,14 @@
         <v>298</v>
       </c>
       <c r="D290" t="str">
-        <f>IF(ISNUMBER(H290),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A290,"'),",F290,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A290,"'),'",F290,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7332'),76);</v>
       </c>
       <c r="F290">
         <v>76</v>
       </c>
       <c r="G290" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7332'),67);</v>
       </c>
       <c r="H290">
@@ -11940,14 +11962,14 @@
         <v>299</v>
       </c>
       <c r="D291" t="str">
-        <f>IF(ISNUMBER(H291),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A291,"'),",F291,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A291,"'),'",F291,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13637'),DNF));</v>
       </c>
       <c r="F291" t="s">
         <v>402</v>
       </c>
       <c r="G291" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13637'),58);</v>
       </c>
       <c r="H291">
@@ -11974,14 +11996,14 @@
         <v>300</v>
       </c>
       <c r="D292" t="str">
-        <f>IF(ISNUMBER(H292),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A292,"'),",F292,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A292,"'),'",F292,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1553'),'DNF)');</v>
       </c>
       <c r="F292" t="s">
         <v>402</v>
       </c>
       <c r="G292" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='POL1553'),DNF);</v>
       </c>
       <c r="H292" t="s">
@@ -12008,14 +12030,14 @@
         <v>301</v>
       </c>
       <c r="D293" t="str">
-        <f>IF(ISNUMBER(H293),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A293,"'),",F293,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A293,"'),'",F293,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1052'),75);</v>
       </c>
       <c r="F293">
         <v>75</v>
       </c>
       <c r="G293" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1052'),'71');</v>
       </c>
       <c r="H293">
@@ -12042,14 +12064,14 @@
         <v>303</v>
       </c>
       <c r="D294" t="str">
-        <f>IF(ISNUMBER(H294),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A294,"'),",F294,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A294,"'),'",F294,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8388'),58);</v>
       </c>
       <c r="F294">
         <v>58</v>
       </c>
       <c r="G294" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8388'),67);</v>
       </c>
       <c r="H294">
@@ -12076,14 +12098,14 @@
         <v>304</v>
       </c>
       <c r="D295" t="str">
-        <f>IF(ISNUMBER(H295),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A295,"'),",F295,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A295,"'),'",F295,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13003'),UFD));</v>
       </c>
       <c r="F295" t="s">
         <v>403</v>
       </c>
       <c r="G295" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13003'),68);</v>
       </c>
       <c r="H295">
@@ -12110,14 +12132,14 @@
         <v>305</v>
       </c>
       <c r="D296" t="str">
-        <f>IF(ISNUMBER(H296),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A296,"'),",F296,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A296,"'),'",F296,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1293'),71);</v>
       </c>
       <c r="F296">
         <v>71</v>
       </c>
       <c r="G296" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1293'),'67');</v>
       </c>
       <c r="H296">
@@ -12144,14 +12166,14 @@
         <v>306</v>
       </c>
       <c r="D297" t="str">
-        <f>IF(ISNUMBER(H297),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A297,"'),",F297,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A297,"'),'",F297,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8738'),DNF));</v>
       </c>
       <c r="F297" t="s">
         <v>402</v>
       </c>
       <c r="G297" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8738'),73);</v>
       </c>
       <c r="H297">
@@ -12178,14 +12200,14 @@
         <v>307</v>
       </c>
       <c r="D298" t="str">
-        <f>IF(ISNUMBER(H298),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A298,"'),",F298,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A298,"'),'",F298,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO188'),'66');</v>
       </c>
       <c r="F298">
         <v>66</v>
       </c>
       <c r="G298" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO188'),(DNF));</v>
       </c>
       <c r="H298" t="s">
@@ -12212,14 +12234,14 @@
         <v>308</v>
       </c>
       <c r="D299" t="str">
-        <f>IF(ISNUMBER(H299),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A299,"'),",F299,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A299,"'),'",F299,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO724'),66);</v>
       </c>
       <c r="F299">
         <v>66</v>
       </c>
       <c r="G299" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO724'),'(BFD)');</v>
       </c>
       <c r="H299">
@@ -12246,14 +12268,14 @@
         <v>309</v>
       </c>
       <c r="D300" t="str">
-        <f>IF(ISNUMBER(H300),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A300,"'),",F300,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A300,"'),'",F300,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5849'),'68');</v>
       </c>
       <c r="F300">
         <v>68</v>
       </c>
       <c r="G300" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5849'),(DNF));</v>
       </c>
       <c r="H300" t="s">
@@ -12280,14 +12302,14 @@
         <v>310</v>
       </c>
       <c r="D301" t="str">
-        <f>IF(ISNUMBER(H301),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A301,"'),",F301,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A301,"'),'",F301,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1275'),58);</v>
       </c>
       <c r="F301">
         <v>58</v>
       </c>
       <c r="G301" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1275'),52);</v>
       </c>
       <c r="H301">
@@ -12314,14 +12336,14 @@
         <v>311</v>
       </c>
       <c r="D302" t="str">
-        <f>IF(ISNUMBER(H302),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A302,"'),",F302,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A302,"'),'",F302,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8817'),70);</v>
       </c>
       <c r="F302">
         <v>70</v>
       </c>
       <c r="G302" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8817'),'(BFD)');</v>
       </c>
       <c r="H302">
@@ -12348,14 +12370,14 @@
         <v>312</v>
       </c>
       <c r="D303" t="str">
-        <f>IF(ISNUMBER(H303),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A303,"'),",F303,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A303,"'),'",F303,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1254'),'DNF)');</v>
       </c>
       <c r="F303" t="s">
         <v>402</v>
       </c>
       <c r="G303" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1254'),DNF);</v>
       </c>
       <c r="H303" t="s">
@@ -12382,14 +12404,14 @@
         <v>313</v>
       </c>
       <c r="D304" t="str">
-        <f>IF(ISNUMBER(H304),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A304,"'),",F304,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A304,"'),'",F304,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8767'),DNF));</v>
       </c>
       <c r="F304" t="s">
         <v>402</v>
       </c>
       <c r="G304" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8767'),67);</v>
       </c>
       <c r="H304">
@@ -12416,14 +12438,14 @@
         <v>314</v>
       </c>
       <c r="D305" t="str">
-        <f>IF(ISNUMBER(H305),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A305,"'),",F305,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A305,"'),'",F305,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7356'),'DNF)');</v>
       </c>
       <c r="F305" t="s">
         <v>402</v>
       </c>
       <c r="G305" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7356'),DNF);</v>
       </c>
       <c r="H305" t="s">
@@ -12450,14 +12472,14 @@
         <v>315</v>
       </c>
       <c r="D306" t="str">
-        <f>IF(ISNUMBER(H306),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A306,"'),",F306,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A306,"'),'",F306,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12620'),'DNF)');</v>
       </c>
       <c r="F306" t="s">
         <v>402</v>
       </c>
       <c r="G306" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12620'),DNF);</v>
       </c>
       <c r="H306" t="s">
@@ -12484,14 +12506,14 @@
         <v>316</v>
       </c>
       <c r="D307" t="str">
-        <f>IF(ISNUMBER(H307),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A307,"'),",F307,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A307,"'),'",F307,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1195'),'72');</v>
       </c>
       <c r="F307">
         <v>72</v>
       </c>
       <c r="G307" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1195'),(DNF));</v>
       </c>
       <c r="H307" t="s">
@@ -12518,14 +12540,14 @@
         <v>317</v>
       </c>
       <c r="D308" t="str">
-        <f>IF(ISNUMBER(H308),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A308,"'),",F308,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A308,"'),'",F308,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12497'),'DNF)');</v>
       </c>
       <c r="F308" t="s">
         <v>402</v>
       </c>
       <c r="G308" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12497'),DNF);</v>
       </c>
       <c r="H308" t="s">
@@ -12552,14 +12574,14 @@
         <v>318</v>
       </c>
       <c r="D309" t="str">
-        <f>IF(ISNUMBER(H309),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A309,"'),",F309,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A309,"'),'",F309,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO958'),'DNF)');</v>
       </c>
       <c r="F309" t="s">
         <v>402</v>
       </c>
       <c r="G309" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO958'),DNF);</v>
       </c>
       <c r="H309" t="s">
@@ -12586,14 +12608,14 @@
         <v>319</v>
       </c>
       <c r="D310" t="str">
-        <f>IF(ISNUMBER(H310),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A310,"'),",F310,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A310,"'),'",F310,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT2208'),'64');</v>
       </c>
       <c r="F310">
         <v>64</v>
       </c>
       <c r="G310" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT2208'),(DNF));</v>
       </c>
       <c r="H310" t="s">
@@ -12620,14 +12642,14 @@
         <v>320</v>
       </c>
       <c r="D311" t="str">
-        <f>IF(ISNUMBER(H311),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A311,"'),",F311,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A311,"'),'",F311,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6959'),'78');</v>
       </c>
       <c r="F311">
         <v>78</v>
       </c>
       <c r="G311" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6959'),(DNF));</v>
       </c>
       <c r="H311" t="s">
@@ -12654,14 +12676,14 @@
         <v>321</v>
       </c>
       <c r="D312" t="str">
-        <f>IF(ISNUMBER(H312),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A312,"'),",F312,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A312,"'),'",F312,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12819'),'71');</v>
       </c>
       <c r="F312">
         <v>71</v>
       </c>
       <c r="G312" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12819'),(DNF));</v>
       </c>
       <c r="H312" t="s">
@@ -12688,14 +12710,14 @@
         <v>322</v>
       </c>
       <c r="D313" t="str">
-        <f>IF(ISNUMBER(H313),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A313,"'),",F313,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A313,"'),'",F313,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8240'),76);</v>
       </c>
       <c r="F313">
         <v>76</v>
       </c>
       <c r="G313" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8240'),75);</v>
       </c>
       <c r="H313">
@@ -12722,14 +12744,14 @@
         <v>324</v>
       </c>
       <c r="D314" t="str">
-        <f>IF(ISNUMBER(H314),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A314,"'),",F314,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A314,"'),'",F314,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1146'),'70');</v>
       </c>
       <c r="F314">
         <v>70</v>
       </c>
       <c r="G314" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1146'),(DNF));</v>
       </c>
       <c r="H314" t="s">
@@ -12756,14 +12778,14 @@
         <v>325</v>
       </c>
       <c r="D315" t="str">
-        <f>IF(ISNUMBER(H315),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A315,"'),",F315,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A315,"'),'",F315,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12972'),'70');</v>
       </c>
       <c r="F315">
         <v>70</v>
       </c>
       <c r="G315" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12972'),(DNF));</v>
       </c>
       <c r="H315" t="s">
@@ -12790,14 +12812,14 @@
         <v>326</v>
       </c>
       <c r="D316" t="str">
-        <f>IF(ISNUMBER(H316),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A316,"'),",F316,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A316,"'),'",F316,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT2704'),'74');</v>
       </c>
       <c r="F316">
         <v>74</v>
       </c>
       <c r="G316" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT2704'),(DNF));</v>
       </c>
       <c r="H316" t="s">
@@ -12824,14 +12846,14 @@
         <v>327</v>
       </c>
       <c r="D317" t="str">
-        <f>IF(ISNUMBER(H317),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A317,"'),",F317,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A317,"'),'",F317,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6284'),77);</v>
       </c>
       <c r="F317">
         <v>77</v>
       </c>
       <c r="G317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6284'),70);</v>
       </c>
       <c r="H317">
@@ -12858,14 +12880,14 @@
         <v>328</v>
       </c>
       <c r="D318" t="str">
-        <f>IF(ISNUMBER(H318),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A318,"'),",F318,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A318,"'),'",F318,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO678'),'DNF)');</v>
       </c>
       <c r="F318" t="s">
         <v>402</v>
       </c>
       <c r="G318" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO678'),'DNF');</v>
       </c>
       <c r="H318" t="s">
@@ -12892,14 +12914,14 @@
         <v>329</v>
       </c>
       <c r="D319" t="str">
-        <f>IF(ISNUMBER(H319),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A319,"'),",F319,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A319,"'),'",F319,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5264'),'50');</v>
       </c>
       <c r="F319">
         <v>50</v>
       </c>
       <c r="G319" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5264'),(UFD));</v>
       </c>
       <c r="H319" t="s">
@@ -12926,14 +12948,14 @@
         <v>330</v>
       </c>
       <c r="D320" t="str">
-        <f>IF(ISNUMBER(H320),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A320,"'),",F320,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A320,"'),'",F320,"');"))</f>
+        <f t="shared" si="8"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1890'),'DNF)');</v>
       </c>
       <c r="F320" t="s">
         <v>402</v>
       </c>
       <c r="G320" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='TUR1890'),DNF);</v>
       </c>
       <c r="H320" t="s">
@@ -12960,14 +12982,14 @@
         <v>331</v>
       </c>
       <c r="D321" t="str">
-        <f>IF(ISNUMBER(H321),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A321,"'),",F321,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A321,"'),'",F321,"');"))</f>
+        <f t="shared" ref="D321:D389" si="10">IF(ISNUMBER(H321),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A321,"'),",F321,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A321,"'),'",F321,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6'),'DNF)');</v>
       </c>
       <c r="F321" t="s">
         <v>402</v>
       </c>
       <c r="G321" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6'),'64');</v>
       </c>
       <c r="H321" t="s">
@@ -12994,14 +13016,14 @@
         <v>332</v>
       </c>
       <c r="D322" t="str">
-        <f>IF(ISNUMBER(H322),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A322,"'),",F322,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A322,"'),'",F322,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8581'),'DNF)');</v>
       </c>
       <c r="F322" t="s">
         <v>402</v>
       </c>
       <c r="G322" t="str">
-        <f t="shared" ref="G322:G385" si="5">IF(ISNUMBER(K322),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A322,"'),",H322,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A322,"'),'",I322,"');"))</f>
+        <f t="shared" ref="G322:G385" si="11">IF(ISNUMBER(K322),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A322,"'),",H322,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A322,"'),'",I322,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8581'),'DNF');</v>
       </c>
       <c r="H322" t="s">
@@ -13028,14 +13050,14 @@
         <v>333</v>
       </c>
       <c r="D323" t="str">
-        <f>IF(ISNUMBER(H323),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A323,"'),",F323,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A323,"'),'",F323,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13099'),'DNF)');</v>
       </c>
       <c r="F323" t="s">
         <v>402</v>
       </c>
       <c r="G323" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13099'),DNF);</v>
       </c>
       <c r="H323" t="s">
@@ -13062,14 +13084,14 @@
         <v>334</v>
       </c>
       <c r="D324" t="str">
-        <f>IF(ISNUMBER(H324),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A324,"'),",F324,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A324,"'),'",F324,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12449'),'DNF)');</v>
       </c>
       <c r="F324" t="s">
         <v>402</v>
       </c>
       <c r="G324" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12449'),'DNF');</v>
       </c>
       <c r="H324" t="s">
@@ -13096,14 +13118,14 @@
         <v>335</v>
       </c>
       <c r="D325" t="str">
-        <f>IF(ISNUMBER(H325),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A325,"'),",F325,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A325,"'),'",F325,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1138'),'DNF)');</v>
       </c>
       <c r="F325" t="s">
         <v>402</v>
       </c>
       <c r="G325" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1138'),DNF);</v>
       </c>
       <c r="H325" t="s">
@@ -13130,14 +13152,14 @@
         <v>336</v>
       </c>
       <c r="D326" t="str">
-        <f>IF(ISNUMBER(H326),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A326,"'),",F326,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A326,"'),'",F326,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11048'),'73');</v>
       </c>
       <c r="F326">
         <v>73</v>
       </c>
       <c r="G326" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11048'),'DNF');</v>
       </c>
       <c r="H326" t="s">
@@ -13164,14 +13186,14 @@
         <v>337</v>
       </c>
       <c r="D327" t="str">
-        <f>IF(ISNUMBER(H327),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A327,"'),",F327,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A327,"'),'",F327,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8275'),'DNF)');</v>
       </c>
       <c r="F327" t="s">
         <v>402</v>
       </c>
       <c r="G327" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8275'),DNF);</v>
       </c>
       <c r="H327" t="s">
@@ -13198,14 +13220,14 @@
         <v>338</v>
       </c>
       <c r="D328" t="str">
-        <f>IF(ISNUMBER(H328),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A328,"'),",F328,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A328,"'),'",F328,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO93'),'DNF)');</v>
       </c>
       <c r="F328" t="s">
         <v>402</v>
       </c>
       <c r="G328" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO93'),'DNF');</v>
       </c>
       <c r="H328" t="s">
@@ -13232,14 +13254,14 @@
         <v>339</v>
       </c>
       <c r="D329" t="str">
-        <f>IF(ISNUMBER(H329),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A329,"'),",F329,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A329,"'),'",F329,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1355'),'DNF)');</v>
       </c>
       <c r="F329" t="s">
         <v>402</v>
       </c>
       <c r="G329" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1355'),DNF);</v>
       </c>
       <c r="H329" t="s">
@@ -13266,14 +13288,14 @@
         <v>340</v>
       </c>
       <c r="D330" t="str">
-        <f>IF(ISNUMBER(H330),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A330,"'),",F330,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A330,"'),'",F330,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12009'),'73');</v>
       </c>
       <c r="F330">
         <v>73</v>
       </c>
       <c r="G330" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12009'),'DNF');</v>
       </c>
       <c r="H330" t="s">
@@ -13300,14 +13322,14 @@
         <v>341</v>
       </c>
       <c r="D331" t="str">
-        <f>IF(ISNUMBER(H331),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A331,"'),",F331,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A331,"'),'",F331,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13103'),'DNF)');</v>
       </c>
       <c r="F331" t="s">
         <v>402</v>
       </c>
       <c r="G331" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13103'),'DNF');</v>
       </c>
       <c r="H331" t="s">
@@ -13334,14 +13356,14 @@
         <v>342</v>
       </c>
       <c r="D332" t="str">
-        <f>IF(ISNUMBER(H332),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A332,"'),",F332,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A332,"'),'",F332,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA4945'),'DNF)');</v>
       </c>
       <c r="F332" t="s">
         <v>402</v>
       </c>
       <c r="G332" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA4945'),DNF);</v>
       </c>
       <c r="H332" t="s">
@@ -13368,14 +13390,14 @@
         <v>343</v>
       </c>
       <c r="D333" t="str">
-        <f>IF(ISNUMBER(H333),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A333,"'),",F333,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A333,"'),'",F333,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12533'),'74');</v>
       </c>
       <c r="F333">
         <v>74</v>
       </c>
       <c r="G333" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER12533'),'DNF');</v>
       </c>
       <c r="H333" t="s">
@@ -13402,14 +13424,14 @@
         <v>344</v>
       </c>
       <c r="D334" t="str">
-        <f>IF(ISNUMBER(H334),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A334,"'),",F334,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A334,"'),'",F334,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13079'),'65');</v>
       </c>
       <c r="F334">
         <v>65</v>
       </c>
       <c r="G334" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13079'),(DNF));</v>
       </c>
       <c r="H334" t="s">
@@ -13436,14 +13458,14 @@
         <v>345</v>
       </c>
       <c r="D335" t="str">
-        <f>IF(ISNUMBER(H335),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A335,"'),",F335,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A335,"'),'",F335,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT7777'),'DNF)');</v>
       </c>
       <c r="F335" t="s">
         <v>402</v>
       </c>
       <c r="G335" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT7777'),DNF);</v>
       </c>
       <c r="H335" t="s">
@@ -13470,14 +13492,14 @@
         <v>346</v>
       </c>
       <c r="D336" t="str">
-        <f>IF(ISNUMBER(H336),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A336,"'),",F336,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A336,"'),'",F336,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11820'),'DNF)');</v>
       </c>
       <c r="F336" t="s">
         <v>402</v>
       </c>
       <c r="G336" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11820'),DNF);</v>
       </c>
       <c r="H336" t="s">
@@ -13504,14 +13526,14 @@
         <v>347</v>
       </c>
       <c r="D337" t="str">
-        <f>IF(ISNUMBER(H337),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A337,"'),",F337,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A337,"'),'",F337,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11804'),'DNF)');</v>
       </c>
       <c r="F337" t="s">
         <v>402</v>
       </c>
       <c r="G337" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11804'),DNF);</v>
       </c>
       <c r="H337" t="s">
@@ -13538,14 +13560,14 @@
         <v>348</v>
       </c>
       <c r="D338" t="str">
-        <f>IF(ISNUMBER(H338),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A338,"'),",F338,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A338,"'),'",F338,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11805'),'DNF)');</v>
       </c>
       <c r="F338" t="s">
         <v>402</v>
       </c>
       <c r="G338" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11805'),DNF);</v>
       </c>
       <c r="H338" t="s">
@@ -13572,14 +13594,14 @@
         <v>349</v>
       </c>
       <c r="D339" t="str">
-        <f>IF(ISNUMBER(H339),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A339,"'),",F339,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A339,"'),'",F339,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8983'),'DNF)');</v>
       </c>
       <c r="F339" t="s">
         <v>402</v>
       </c>
       <c r="G339" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8983'),DNF);</v>
       </c>
       <c r="H339" t="s">
@@ -13606,14 +13628,14 @@
         <v>350</v>
       </c>
       <c r="D340" t="str">
-        <f>IF(ISNUMBER(H340),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A340,"'),",F340,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A340,"'),'",F340,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1028'),'RET)');</v>
       </c>
       <c r="F340" t="s">
         <v>404</v>
       </c>
       <c r="G340" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1028'),'DNF');</v>
       </c>
       <c r="H340" t="s">
@@ -13640,14 +13662,14 @@
         <v>351</v>
       </c>
       <c r="D341" t="str">
-        <f>IF(ISNUMBER(H341),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A341,"'),",F341,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A341,"'),'",F341,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER18129'),'UFD)');</v>
       </c>
       <c r="F341" t="s">
         <v>403</v>
       </c>
       <c r="G341" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER18129'),'DNF');</v>
       </c>
       <c r="H341" t="s">
@@ -13674,14 +13696,14 @@
         <v>352</v>
       </c>
       <c r="D342" t="str">
-        <f>IF(ISNUMBER(H342),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A342,"'),",F342,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A342,"'),'",F342,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5209'),'DNF)');</v>
       </c>
       <c r="F342" t="s">
         <v>402</v>
       </c>
       <c r="G342" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5209'),'DNF');</v>
       </c>
       <c r="H342" t="s">
@@ -13708,14 +13730,14 @@
         <v>353</v>
       </c>
       <c r="D343" t="str">
-        <f>IF(ISNUMBER(H343),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A343,"'),",F343,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A343,"'),'",F343,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7939'),'DNF)');</v>
       </c>
       <c r="F343" t="s">
         <v>402</v>
       </c>
       <c r="G343" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7939'),DNF);</v>
       </c>
       <c r="H343" t="s">
@@ -13742,14 +13764,14 @@
         <v>355</v>
       </c>
       <c r="D344" t="str">
-        <f>IF(ISNUMBER(H344),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A344,"'),",F344,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A344,"'),'",F344,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER999'),'DNF)');</v>
       </c>
       <c r="F344" t="s">
         <v>402</v>
       </c>
       <c r="G344" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER999'),DNF);</v>
       </c>
       <c r="H344" t="s">
@@ -13776,14 +13798,14 @@
         <v>356</v>
       </c>
       <c r="D345" t="str">
-        <f>IF(ISNUMBER(H345),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A345,"'),",F345,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A345,"'),'",F345,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8998'),'DNF)');</v>
       </c>
       <c r="F345" t="s">
         <v>402</v>
       </c>
       <c r="G345" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8998'),'DNF');</v>
       </c>
       <c r="H345" t="s">
@@ -13810,14 +13832,14 @@
         <v>357</v>
       </c>
       <c r="D346" t="str">
-        <f>IF(ISNUMBER(H346),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A346,"'),",F346,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A346,"'),'",F346,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER9157'),'DNF)');</v>
       </c>
       <c r="F346" t="s">
         <v>402</v>
       </c>
       <c r="G346" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER9157'),DNF);</v>
       </c>
       <c r="H346" t="s">
@@ -13844,14 +13866,14 @@
         <v>358</v>
       </c>
       <c r="D347" t="str">
-        <f>IF(ISNUMBER(H347),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A347,"'),",F347,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A347,"'),'",F347,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1218'),'DNF)');</v>
       </c>
       <c r="F347" t="s">
         <v>402</v>
       </c>
       <c r="G347" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER1218'),'DNF');</v>
       </c>
       <c r="H347" t="s">
@@ -13878,14 +13900,14 @@
         <v>359</v>
       </c>
       <c r="D348" t="str">
-        <f>IF(ISNUMBER(H348),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A348,"'),",F348,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A348,"'),'",F348,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB209'),'DNF)');</v>
       </c>
       <c r="F348" t="s">
         <v>402</v>
       </c>
       <c r="G348" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SRB209'),DNF);</v>
       </c>
       <c r="H348" t="s">
@@ -13912,14 +13934,14 @@
         <v>360</v>
       </c>
       <c r="D349" t="str">
-        <f>IF(ISNUMBER(H349),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A349,"'),",F349,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A349,"'),'",F349,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO393'),'DNF)');</v>
       </c>
       <c r="F349" t="s">
         <v>402</v>
       </c>
       <c r="G349" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO393'),'DNF');</v>
       </c>
       <c r="H349" t="s">
@@ -13946,14 +13968,14 @@
         <v>361</v>
       </c>
       <c r="D350" t="str">
-        <f>IF(ISNUMBER(H350),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A350,"'),",F350,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A350,"'),'",F350,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO728'),'DNF)');</v>
       </c>
       <c r="F350" t="s">
         <v>402</v>
       </c>
       <c r="G350" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO728'),DNF);</v>
       </c>
       <c r="H350" t="s">
@@ -13980,14 +14002,14 @@
         <v>362</v>
       </c>
       <c r="D351" t="str">
-        <f>IF(ISNUMBER(H351),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A351,"'),",F351,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A351,"'),'",F351,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5'),'UFD)');</v>
       </c>
       <c r="F351" t="s">
         <v>403</v>
       </c>
       <c r="G351" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA5'),'68');</v>
       </c>
       <c r="H351" t="s">
@@ -14014,14 +14036,14 @@
         <v>363</v>
       </c>
       <c r="D352" t="str">
-        <f>IF(ISNUMBER(H352),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A352,"'),",F352,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A352,"'),'",F352,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7070'),'DNF)');</v>
       </c>
       <c r="F352" t="s">
         <v>402</v>
       </c>
       <c r="G352" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7070'),DNF);</v>
       </c>
       <c r="H352" t="s">
@@ -14048,14 +14070,14 @@
         <v>364</v>
       </c>
       <c r="D353" t="str">
-        <f>IF(ISNUMBER(H353),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A353,"'),",F353,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A353,"'),'",F353,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13130'),'DNF)');</v>
       </c>
       <c r="F353" t="s">
         <v>402</v>
       </c>
       <c r="G353" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13130'),'DNF');</v>
       </c>
       <c r="H353" t="s">
@@ -14082,14 +14104,14 @@
         <v>365</v>
       </c>
       <c r="D354" t="str">
-        <f>IF(ISNUMBER(H354),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A354,"'),",F354,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A354,"'),'",F354,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK517'),'DNF)');</v>
       </c>
       <c r="F354" t="s">
         <v>402</v>
       </c>
       <c r="G354" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SVK517'),DNF);</v>
       </c>
       <c r="H354" t="s">
@@ -14116,14 +14138,14 @@
         <v>366</v>
       </c>
       <c r="D355" t="str">
-        <f>IF(ISNUMBER(H355),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A355,"'),",F355,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A355,"'),'",F355,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11587'),'RET)');</v>
       </c>
       <c r="F355" t="s">
         <v>404</v>
       </c>
       <c r="G355" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11587'),'DNF');</v>
       </c>
       <c r="H355" t="s">
@@ -14150,14 +14172,14 @@
         <v>367</v>
       </c>
       <c r="D356" t="str">
-        <f>IF(ISNUMBER(H356),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A356,"'),",F356,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A356,"'),'",F356,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA3926'),'DNF)');</v>
       </c>
       <c r="F356" t="s">
         <v>402</v>
       </c>
       <c r="G356" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA3926'),'DNF');</v>
       </c>
       <c r="H356" t="s">
@@ -14184,14 +14206,14 @@
         <v>368</v>
       </c>
       <c r="D357" t="str">
-        <f>IF(ISNUMBER(H357),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A357,"'),",F357,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A357,"'),'",F357,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1136'),'DNF)');</v>
       </c>
       <c r="F357" t="s">
         <v>402</v>
       </c>
       <c r="G357" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1136'),DNF);</v>
       </c>
       <c r="H357" t="s">
@@ -14218,14 +14240,14 @@
         <v>369</v>
       </c>
       <c r="D358" t="str">
-        <f>IF(ISNUMBER(H358),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A358,"'),",F358,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A358,"'),'",F358,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13231'),'UFD)');</v>
       </c>
       <c r="F358" t="s">
         <v>403</v>
       </c>
       <c r="G358" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER13231'),DNF);</v>
       </c>
       <c r="H358" t="s">
@@ -14252,14 +14274,14 @@
         <v>370</v>
       </c>
       <c r="D359" t="str">
-        <f>IF(ISNUMBER(H359),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A359,"'),",F359,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A359,"'),'",F359,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11913'),'DNF)');</v>
       </c>
       <c r="F359" t="s">
         <v>402</v>
       </c>
       <c r="G359" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11913'),'DNF');</v>
       </c>
       <c r="H359" t="s">
@@ -14286,14 +14308,14 @@
         <v>371</v>
       </c>
       <c r="D360" t="str">
-        <f>IF(ISNUMBER(H360),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A360,"'),",F360,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A360,"'),'",F360,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8206'),'DNF)');</v>
       </c>
       <c r="F360" t="s">
         <v>402</v>
       </c>
       <c r="G360" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8206'),'DNF');</v>
       </c>
       <c r="H360" t="s">
@@ -14320,14 +14342,14 @@
         <v>372</v>
       </c>
       <c r="D361" t="str">
-        <f>IF(ISNUMBER(H361),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A361,"'),",F361,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A361,"'),'",F361,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6942'),'DNF)');</v>
       </c>
       <c r="F361" t="s">
         <v>402</v>
       </c>
       <c r="G361" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA6942'),DNF);</v>
       </c>
       <c r="H361" t="s">
@@ -14354,14 +14376,14 @@
         <v>373</v>
       </c>
       <c r="D362" t="str">
-        <f>IF(ISNUMBER(H362),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A362,"'),",F362,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A362,"'),'",F362,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO523'),'DNF)');</v>
       </c>
       <c r="F362" t="s">
         <v>402</v>
       </c>
       <c r="G362" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO523'),'DNF');</v>
       </c>
       <c r="H362" t="s">
@@ -14388,14 +14410,14 @@
         <v>374</v>
       </c>
       <c r="D363" t="str">
-        <f>IF(ISNUMBER(H363),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A363,"'),",F363,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A363,"'),'",F363,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7999'),'DNF)');</v>
       </c>
       <c r="F363" t="s">
         <v>402</v>
       </c>
       <c r="G363" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7999'),'DNF');</v>
       </c>
       <c r="H363" t="s">
@@ -14422,14 +14444,14 @@
         <v>375</v>
       </c>
       <c r="D364" t="str">
-        <f>IF(ISNUMBER(H364),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A364,"'),",F364,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A364,"'),'",F364,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1123'),'DNF)');</v>
       </c>
       <c r="F364" t="s">
         <v>402</v>
       </c>
       <c r="G364" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1123'),DNF);</v>
       </c>
       <c r="H364" t="s">
@@ -14456,14 +14478,14 @@
         <v>376</v>
       </c>
       <c r="D365" t="str">
-        <f>IF(ISNUMBER(H365),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A365,"'),",F365,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A365,"'),'",F365,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1305'),'DNF)');</v>
       </c>
       <c r="F365" t="s">
         <v>402</v>
       </c>
       <c r="G365" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1305'),DNF);</v>
       </c>
       <c r="H365" t="s">
@@ -14490,14 +14512,14 @@
         <v>377</v>
       </c>
       <c r="D366" t="str">
-        <f>IF(ISNUMBER(H366),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A366,"'),",F366,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A366,"'),'",F366,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO855'),'DNF)');</v>
       </c>
       <c r="F366" t="s">
         <v>402</v>
       </c>
       <c r="G366" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO855'),'DNF');</v>
       </c>
       <c r="H366" t="s">
@@ -14524,14 +14546,14 @@
         <v>378</v>
       </c>
       <c r="D367" t="str">
-        <f>IF(ISNUMBER(H367),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A367,"'),",F367,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A367,"'),'",F367,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO37'),'76');</v>
       </c>
       <c r="F367">
         <v>76</v>
       </c>
       <c r="G367" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO37'),'DNF');</v>
       </c>
       <c r="H367" t="s">
@@ -14558,14 +14580,14 @@
         <v>379</v>
       </c>
       <c r="D368" t="str">
-        <f>IF(ISNUMBER(H368),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A368,"'),",F368,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A368,"'),'",F368,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7'),'DNF)');</v>
       </c>
       <c r="F368" t="s">
         <v>402</v>
       </c>
       <c r="G368" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA7'),'DNF');</v>
       </c>
       <c r="H368" t="s">
@@ -14592,14 +14614,14 @@
         <v>380</v>
       </c>
       <c r="D369" t="str">
-        <f>IF(ISNUMBER(H369),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A369,"'),",F369,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A369,"'),'",F369,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA111'),'DNF)');</v>
       </c>
       <c r="F369" t="s">
         <v>402</v>
       </c>
       <c r="G369" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA111'),'DNF');</v>
       </c>
       <c r="H369" t="s">
@@ -14626,14 +14648,14 @@
         <v>381</v>
       </c>
       <c r="D370" t="str">
-        <f>IF(ISNUMBER(H370),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A370,"'),",F370,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A370,"'),'",F370,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER10212'),'DNF)');</v>
       </c>
       <c r="F370" t="s">
         <v>402</v>
       </c>
       <c r="G370" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER10212'),'DNF');</v>
       </c>
       <c r="H370" t="s">
@@ -14660,14 +14682,14 @@
         <v>382</v>
       </c>
       <c r="D371" t="str">
-        <f>IF(ISNUMBER(H371),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A371,"'),",F371,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A371,"'),'",F371,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO669'),'DNF)');</v>
       </c>
       <c r="F371" t="s">
         <v>402</v>
       </c>
       <c r="G371" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO669'),'DNF');</v>
       </c>
       <c r="H371" t="s">
@@ -14694,14 +14716,14 @@
         <v>383</v>
       </c>
       <c r="D372" t="str">
-        <f>IF(ISNUMBER(H372),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A372,"'),",F372,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A372,"'),'",F372,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8997'),'DNF)');</v>
       </c>
       <c r="F372" t="s">
         <v>402</v>
       </c>
       <c r="G372" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8997'),'DNF');</v>
       </c>
       <c r="H372" t="s">
@@ -14728,14 +14750,14 @@
         <v>384</v>
       </c>
       <c r="D373" t="str">
-        <f>IF(ISNUMBER(H373),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A373,"'),",F373,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A373,"'),'",F373,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8736'),'DNF)');</v>
       </c>
       <c r="F373" t="s">
         <v>402</v>
       </c>
       <c r="G373" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8736'),'BFD');</v>
       </c>
       <c r="H373" t="s">
@@ -14762,14 +14784,14 @@
         <v>385</v>
       </c>
       <c r="D374" t="str">
-        <f>IF(ISNUMBER(H374),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A374,"'),",F374,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A374,"'),'",F374,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA4535'),'DNF)');</v>
       </c>
       <c r="F374" t="s">
         <v>402</v>
       </c>
       <c r="G374" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA4535'),'DNF');</v>
       </c>
       <c r="H374" t="s">
@@ -14796,14 +14818,14 @@
         <v>386</v>
       </c>
       <c r="D375" t="str">
-        <f>IF(ISNUMBER(H375),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A375,"'),",F375,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A375,"'),'",F375,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1055'),'DNF)');</v>
       </c>
       <c r="F375" t="s">
         <v>402</v>
       </c>
       <c r="G375" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1055'),'DNF');</v>
       </c>
       <c r="H375" t="s">
@@ -14830,14 +14852,14 @@
         <v>387</v>
       </c>
       <c r="D376" t="str">
-        <f>IF(ISNUMBER(H376),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A376,"'),",F376,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A376,"'),'",F376,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8743'),'DNF)');</v>
       </c>
       <c r="F376" t="s">
         <v>402</v>
       </c>
       <c r="G376" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8743'),'DNF');</v>
       </c>
       <c r="H376" t="s">
@@ -14864,14 +14886,14 @@
         <v>388</v>
       </c>
       <c r="D377" t="str">
-        <f>IF(ISNUMBER(H377),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A377,"'),",F377,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A377,"'),'",F377,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER10359'),'DNF)');</v>
       </c>
       <c r="F377" t="s">
         <v>402</v>
       </c>
       <c r="G377" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER10359'),'DNF');</v>
       </c>
       <c r="H377" t="s">
@@ -14898,14 +14920,14 @@
         <v>389</v>
       </c>
       <c r="D378" t="str">
-        <f>IF(ISNUMBER(H378),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A378,"'),",F378,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A378,"'),'",F378,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER10360'),'DNF)');</v>
       </c>
       <c r="F378" t="s">
         <v>402</v>
       </c>
       <c r="G378" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER10360'),'DNF');</v>
       </c>
       <c r="H378" t="s">
@@ -14932,14 +14954,14 @@
         <v>390</v>
       </c>
       <c r="D379" t="str">
-        <f>IF(ISNUMBER(H379),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A379,"'),",F379,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A379,"'),'",F379,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11127'),'DNF)');</v>
       </c>
       <c r="F379" t="s">
         <v>402</v>
       </c>
       <c r="G379" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11127'),'DNF');</v>
       </c>
       <c r="H379" t="s">
@@ -14966,14 +14988,14 @@
         <v>391</v>
       </c>
       <c r="D380" t="str">
-        <f>IF(ISNUMBER(H380),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A380,"'),",F380,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A380,"'),'",F380,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11491'),'DNF)');</v>
       </c>
       <c r="F380" t="s">
         <v>402</v>
       </c>
       <c r="G380" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11491'),'DNF');</v>
       </c>
       <c r="H380" t="s">
@@ -15000,14 +15022,14 @@
         <v>392</v>
       </c>
       <c r="D381" t="str">
-        <f>IF(ISNUMBER(H381),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A381,"'),",F381,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A381,"'),'",F381,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO522'),'594');</v>
       </c>
       <c r="F381">
         <v>594</v>
       </c>
       <c r="G381" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO522'),'DNF');</v>
       </c>
       <c r="H381" t="s">
@@ -15034,14 +15056,14 @@
         <v>393</v>
       </c>
       <c r="D382" t="str">
-        <f>IF(ISNUMBER(H382),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A382,"'),",F382,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A382,"'),'",F382,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO524'),'594');</v>
       </c>
       <c r="F382">
         <v>594</v>
       </c>
       <c r="G382" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO524'),'DNF');</v>
       </c>
       <c r="H382" t="s">
@@ -15068,14 +15090,14 @@
         <v>394</v>
       </c>
       <c r="D383" t="str">
-        <f>IF(ISNUMBER(H383),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A383,"'),",F383,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A383,"'),'",F383,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11467'),'594');</v>
       </c>
       <c r="F383">
         <v>594</v>
       </c>
       <c r="G383" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER11467'),'DNF');</v>
       </c>
       <c r="H383" t="s">
@@ -15102,14 +15124,14 @@
         <v>395</v>
       </c>
       <c r="D384" t="str">
-        <f>IF(ISNUMBER(H384),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A384,"'),",F384,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A384,"'),'",F384,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT11696'),'594');</v>
       </c>
       <c r="F384">
         <v>594</v>
       </c>
       <c r="G384" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT11696'),'DNF');</v>
       </c>
       <c r="H384" t="s">
@@ -15136,14 +15158,14 @@
         <v>396</v>
       </c>
       <c r="D385" t="str">
-        <f>IF(ISNUMBER(H385),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A385,"'),",F385,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A385,"'),'",F385,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1000'),'594');</v>
       </c>
       <c r="F385">
         <v>594</v>
       </c>
       <c r="G385" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT1000'),'DNF');</v>
       </c>
       <c r="H385" t="s">
@@ -15170,14 +15192,14 @@
         <v>397</v>
       </c>
       <c r="D386" t="str">
-        <f>IF(ISNUMBER(H386),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A386,"'),",F386,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A386,"'),'",F386,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT767'),'594');</v>
       </c>
       <c r="F386">
         <v>594</v>
       </c>
       <c r="G386" t="str">
-        <f t="shared" ref="G386:G389" si="6">IF(ISNUMBER(K386),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A386,"'),",H386,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A386,"'),'",I386,"');"))</f>
+        <f t="shared" ref="G386:G389" si="12">IF(ISNUMBER(K386),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A386,"'),",H386,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A386,"'),'",I386,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='AUT767'),'DNF');</v>
       </c>
       <c r="H386" t="s">
@@ -15204,14 +15226,14 @@
         <v>398</v>
       </c>
       <c r="D387" t="str">
-        <f>IF(ISNUMBER(H387),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A387,"'),",F387,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A387,"'),'",F387,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8367'),'594');</v>
       </c>
       <c r="F387">
         <v>594</v>
       </c>
       <c r="G387" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8367'),'DNF');</v>
       </c>
       <c r="H387" t="s">
@@ -15238,14 +15260,14 @@
         <v>399</v>
       </c>
       <c r="D388" t="str">
-        <f>IF(ISNUMBER(H388),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A388,"'),",F388,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A388,"'),'",F388,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8387'),'594');</v>
       </c>
       <c r="F388">
         <v>594</v>
       </c>
       <c r="G388" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='ITA8387'),'DNF');</v>
       </c>
       <c r="H388" t="s">
@@ -15272,14 +15294,14 @@
         <v>400</v>
       </c>
       <c r="D389" t="str">
-        <f>IF(ISNUMBER(H389),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A389,"'),",F389,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A389,"'),'",F389,"');"))</f>
+        <f t="shared" si="10"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(18,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER8828'),'594');</v>
       </c>
       <c r="F389">
         <v>594</v>
       </c>
       <c r="G389" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='GER8828'),'DNF');</v>
       </c>
       <c r="H389" t="s">
@@ -15310,8 +15332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P355" workbookViewId="0">
-      <selection activeCell="Q355" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15337,7 +15359,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="str">
-        <f>IF(ISNUMBER(H1),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A1,"'),",H1,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",A1,"'),'",H1,"');"))</f>
+        <f>IF(ISNUMBER(H1),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",[1]SanSimon_plovi!$A$1,"'),",H1,");"),CONCATENATE("INSERT INTO tocke_plovi(plov_idplov,tekmovalec_idtekmovalec,posebnosti) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='",[1]SanSimon_plovi!$A$1,"'),'",H1,"');"))</f>
         <v>INSERT INTO tocke_plovi(plov_idplov, tekmovalec_idtekmovalec, tocke) VALUES(19,(SELECT idtekmovalec FROM tekmovalec WHERE sailno='SLO711'),4);</v>
       </c>
       <c r="H1">
